--- a/scripts/autogenerated_parts.xlsx
+++ b/scripts/autogenerated_parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\kicad_wut\kicad_libraries\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E0BDCA-0BC8-421D-97B0-FDF8EB370C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F39CB0D-ACF0-4E9F-8042-2C1D76A2B814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5924" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6441" uniqueCount="1096">
   <si>
     <t>Base Symbol</t>
   </si>
@@ -3277,6 +3277,42 @@
   </si>
   <si>
     <t>5%</t>
+  </si>
+  <si>
+    <t>Rated Current (FB or L)</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>BLM18AG601SN1D</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/en-eu/products/productdetail?partno=BLM18AG601SN1%23</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>600R</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>500mA</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.55</t>
   </si>
 </sst>
 </file>
@@ -3612,10 +3648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K708"/>
+  <dimension ref="A1:L709"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A681" workbookViewId="0">
-      <selection activeCell="M712" sqref="M712"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A678" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M711" sqref="M711"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3625,7 +3662,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3659,8 +3696,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -3689,7 +3729,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3718,7 +3758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -3747,7 +3787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3776,7 +3816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3805,7 +3845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -3834,7 +3874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3863,7 +3903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -3892,7 +3932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -3921,7 +3961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -3956,7 +3996,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -3991,7 +4031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -4026,7 +4066,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -4061,7 +4101,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -4096,7 +4136,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -10349,6 +10389,9 @@
       <c r="F202" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G202" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H202" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10375,6 +10418,9 @@
       <c r="F203" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G203" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H203" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10401,6 +10447,9 @@
       <c r="F204" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G204" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H204" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10427,6 +10476,9 @@
       <c r="F205" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G205" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H205" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10453,6 +10505,9 @@
       <c r="F206" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G206" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H206" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10479,6 +10534,9 @@
       <c r="F207" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G207" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H207" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10505,6 +10563,9 @@
       <c r="F208" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G208" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H208" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10531,6 +10592,9 @@
       <c r="F209" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G209" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H209" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10557,6 +10621,9 @@
       <c r="F210" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G210" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H210" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10583,6 +10650,9 @@
       <c r="F211" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G211" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H211" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10609,6 +10679,9 @@
       <c r="F212" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G212" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H212" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10635,6 +10708,9 @@
       <c r="F213" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G213" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H213" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10661,6 +10737,9 @@
       <c r="F214" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G214" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H214" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10687,6 +10766,9 @@
       <c r="F215" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G215" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H215" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10713,6 +10795,9 @@
       <c r="F216" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G216" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H216" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10739,6 +10824,9 @@
       <c r="F217" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G217" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H217" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10765,6 +10853,9 @@
       <c r="F218" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G218" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H218" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10791,6 +10882,9 @@
       <c r="F219" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G219" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H219" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10817,6 +10911,9 @@
       <c r="F220" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G220" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H220" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10843,6 +10940,9 @@
       <c r="F221" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G221" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H221" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10869,6 +10969,9 @@
       <c r="F222" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G222" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H222" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10895,6 +10998,9 @@
       <c r="F223" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G223" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H223" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10921,6 +11027,9 @@
       <c r="F224" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G224" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H224" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10947,6 +11056,9 @@
       <c r="F225" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G225" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H225" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10973,6 +11085,9 @@
       <c r="F226" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G226" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H226" s="1" t="s">
         <v>1082</v>
       </c>
@@ -10999,6 +11114,9 @@
       <c r="F227" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G227" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H227" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11025,6 +11143,9 @@
       <c r="F228" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G228" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H228" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11051,6 +11172,9 @@
       <c r="F229" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G229" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H229" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11077,6 +11201,9 @@
       <c r="F230" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G230" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H230" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11103,6 +11230,9 @@
       <c r="F231" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G231" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H231" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11129,6 +11259,9 @@
       <c r="F232" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G232" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H232" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11155,6 +11288,9 @@
       <c r="F233" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G233" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H233" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11181,6 +11317,9 @@
       <c r="F234" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G234" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H234" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11207,6 +11346,9 @@
       <c r="F235" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G235" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H235" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11233,6 +11375,9 @@
       <c r="F236" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G236" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H236" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11259,6 +11404,9 @@
       <c r="F237" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G237" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H237" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11285,6 +11433,9 @@
       <c r="F238" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G238" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H238" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11311,6 +11462,9 @@
       <c r="F239" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G239" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H239" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11337,6 +11491,9 @@
       <c r="F240" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G240" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H240" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11363,6 +11520,9 @@
       <c r="F241" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G241" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H241" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11389,6 +11549,9 @@
       <c r="F242" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G242" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H242" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11415,6 +11578,9 @@
       <c r="F243" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G243" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H243" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11441,6 +11607,9 @@
       <c r="F244" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G244" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H244" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11467,6 +11636,9 @@
       <c r="F245" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G245" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H245" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11493,6 +11665,9 @@
       <c r="F246" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G246" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H246" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11519,6 +11694,9 @@
       <c r="F247" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G247" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H247" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11545,6 +11723,9 @@
       <c r="F248" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G248" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H248" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11571,6 +11752,9 @@
       <c r="F249" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G249" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H249" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11597,6 +11781,9 @@
       <c r="F250" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G250" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H250" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11623,6 +11810,9 @@
       <c r="F251" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G251" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H251" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11649,6 +11839,9 @@
       <c r="F252" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G252" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H252" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11675,6 +11868,9 @@
       <c r="F253" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G253" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H253" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11701,6 +11897,9 @@
       <c r="F254" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G254" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H254" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11727,6 +11926,9 @@
       <c r="F255" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G255" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H255" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11753,6 +11955,9 @@
       <c r="F256" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G256" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H256" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11779,6 +11984,9 @@
       <c r="F257" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G257" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H257" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11805,6 +12013,9 @@
       <c r="F258" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G258" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H258" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11831,6 +12042,9 @@
       <c r="F259" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G259" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H259" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11857,6 +12071,9 @@
       <c r="F260" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G260" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H260" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11883,6 +12100,9 @@
       <c r="F261" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G261" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H261" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11909,6 +12129,9 @@
       <c r="F262" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G262" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H262" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11935,6 +12158,9 @@
       <c r="F263" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G263" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H263" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11961,6 +12187,9 @@
       <c r="F264" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G264" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H264" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11987,6 +12216,9 @@
       <c r="F265" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G265" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H265" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12013,6 +12245,9 @@
       <c r="F266" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G266" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H266" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12039,6 +12274,9 @@
       <c r="F267" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G267" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H267" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12065,6 +12303,9 @@
       <c r="F268" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G268" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H268" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12091,6 +12332,9 @@
       <c r="F269" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G269" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H269" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12117,6 +12361,9 @@
       <c r="F270" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G270" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H270" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12143,6 +12390,9 @@
       <c r="F271" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G271" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H271" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12169,6 +12419,9 @@
       <c r="F272" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G272" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H272" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12195,6 +12448,9 @@
       <c r="F273" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G273" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H273" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12221,6 +12477,9 @@
       <c r="F274" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G274" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H274" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12247,6 +12506,9 @@
       <c r="F275" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G275" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H275" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12273,6 +12535,9 @@
       <c r="F276" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G276" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H276" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12299,6 +12564,9 @@
       <c r="F277" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G277" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H277" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12325,6 +12593,9 @@
       <c r="F278" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G278" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H278" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12351,6 +12622,9 @@
       <c r="F279" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G279" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H279" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12377,6 +12651,9 @@
       <c r="F280" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G280" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H280" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12403,6 +12680,9 @@
       <c r="F281" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G281" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H281" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12429,6 +12709,9 @@
       <c r="F282" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G282" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H282" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12455,6 +12738,9 @@
       <c r="F283" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G283" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H283" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12481,6 +12767,9 @@
       <c r="F284" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G284" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H284" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12507,6 +12796,9 @@
       <c r="F285" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G285" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H285" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12533,6 +12825,9 @@
       <c r="F286" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G286" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H286" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12559,6 +12854,9 @@
       <c r="F287" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G287" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H287" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12585,6 +12883,9 @@
       <c r="F288" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G288" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H288" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12611,6 +12912,9 @@
       <c r="F289" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G289" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H289" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12637,6 +12941,9 @@
       <c r="F290" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G290" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H290" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12663,6 +12970,9 @@
       <c r="F291" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G291" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H291" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12689,6 +12999,9 @@
       <c r="F292" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G292" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H292" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12715,6 +13028,9 @@
       <c r="F293" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G293" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H293" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12741,6 +13057,9 @@
       <c r="F294" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G294" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H294" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12767,6 +13086,9 @@
       <c r="F295" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G295" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H295" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12793,6 +13115,9 @@
       <c r="F296" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G296" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H296" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12819,6 +13144,9 @@
       <c r="F297" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G297" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H297" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12845,6 +13173,9 @@
       <c r="F298" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G298" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H298" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12871,6 +13202,9 @@
       <c r="F299" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G299" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H299" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12897,6 +13231,9 @@
       <c r="F300" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G300" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H300" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12923,6 +13260,9 @@
       <c r="F301" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G301" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H301" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12949,6 +13289,9 @@
       <c r="F302" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G302" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H302" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12975,6 +13318,9 @@
       <c r="F303" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G303" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H303" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13001,6 +13347,9 @@
       <c r="F304" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G304" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H304" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13027,6 +13376,9 @@
       <c r="F305" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G305" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H305" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13053,6 +13405,9 @@
       <c r="F306" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G306" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H306" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13079,6 +13434,9 @@
       <c r="F307" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G307" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H307" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13105,6 +13463,9 @@
       <c r="F308" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G308" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H308" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13131,6 +13492,9 @@
       <c r="F309" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G309" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H309" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13157,6 +13521,9 @@
       <c r="F310" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G310" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H310" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13183,6 +13550,9 @@
       <c r="F311" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G311" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H311" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13209,6 +13579,9 @@
       <c r="F312" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G312" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H312" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13235,6 +13608,9 @@
       <c r="F313" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G313" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H313" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13261,6 +13637,9 @@
       <c r="F314" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G314" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H314" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13287,6 +13666,9 @@
       <c r="F315" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G315" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H315" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13313,6 +13695,9 @@
       <c r="F316" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G316" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H316" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13339,6 +13724,9 @@
       <c r="F317" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G317" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H317" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13365,6 +13753,9 @@
       <c r="F318" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G318" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H318" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13391,6 +13782,9 @@
       <c r="F319" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G319" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H319" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13417,6 +13811,9 @@
       <c r="F320" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G320" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H320" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13443,6 +13840,9 @@
       <c r="F321" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G321" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H321" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13469,6 +13869,9 @@
       <c r="F322" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G322" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H322" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13495,6 +13898,9 @@
       <c r="F323" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G323" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H323" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13521,6 +13927,9 @@
       <c r="F324" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G324" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H324" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13547,6 +13956,9 @@
       <c r="F325" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G325" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H325" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13573,6 +13985,9 @@
       <c r="F326" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G326" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H326" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13599,6 +14014,9 @@
       <c r="F327" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G327" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H327" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13625,6 +14043,9 @@
       <c r="F328" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G328" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H328" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13651,6 +14072,9 @@
       <c r="F329" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G329" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H329" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13677,6 +14101,9 @@
       <c r="F330" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G330" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H330" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13703,6 +14130,9 @@
       <c r="F331" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G331" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H331" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13729,6 +14159,9 @@
       <c r="F332" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G332" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H332" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13755,6 +14188,9 @@
       <c r="F333" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G333" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H333" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13781,6 +14217,9 @@
       <c r="F334" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G334" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H334" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13807,6 +14246,9 @@
       <c r="F335" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G335" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H335" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13833,6 +14275,9 @@
       <c r="F336" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G336" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H336" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13859,6 +14304,9 @@
       <c r="F337" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G337" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H337" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13885,6 +14333,9 @@
       <c r="F338" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G338" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H338" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13911,6 +14362,9 @@
       <c r="F339" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G339" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H339" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13937,6 +14391,9 @@
       <c r="F340" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G340" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H340" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13963,6 +14420,9 @@
       <c r="F341" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G341" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H341" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13989,6 +14449,9 @@
       <c r="F342" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G342" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H342" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14015,6 +14478,9 @@
       <c r="F343" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G343" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H343" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14041,6 +14507,9 @@
       <c r="F344" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G344" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H344" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14067,6 +14536,9 @@
       <c r="F345" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G345" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H345" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14093,6 +14565,9 @@
       <c r="F346" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G346" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H346" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14119,6 +14594,9 @@
       <c r="F347" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G347" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H347" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14145,6 +14623,9 @@
       <c r="F348" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G348" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H348" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14171,6 +14652,9 @@
       <c r="F349" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G349" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H349" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14197,6 +14681,9 @@
       <c r="F350" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G350" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H350" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14223,6 +14710,9 @@
       <c r="F351" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G351" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H351" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14249,6 +14739,9 @@
       <c r="F352" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G352" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H352" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14275,6 +14768,9 @@
       <c r="F353" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G353" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H353" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14301,6 +14797,9 @@
       <c r="F354" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G354" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H354" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14327,6 +14826,9 @@
       <c r="F355" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G355" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H355" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14353,6 +14855,9 @@
       <c r="F356" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G356" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H356" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14379,6 +14884,9 @@
       <c r="F357" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G357" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H357" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14405,6 +14913,9 @@
       <c r="F358" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G358" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H358" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14431,6 +14942,9 @@
       <c r="F359" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G359" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H359" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14457,6 +14971,9 @@
       <c r="F360" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G360" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H360" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14483,6 +15000,9 @@
       <c r="F361" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G361" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H361" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14509,6 +15029,9 @@
       <c r="F362" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G362" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H362" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14535,6 +15058,9 @@
       <c r="F363" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G363" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H363" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14561,6 +15087,9 @@
       <c r="F364" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G364" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H364" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14587,6 +15116,9 @@
       <c r="F365" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G365" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H365" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14613,6 +15145,9 @@
       <c r="F366" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G366" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H366" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14639,6 +15174,9 @@
       <c r="F367" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G367" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H367" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14665,6 +15203,9 @@
       <c r="F368" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G368" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H368" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14691,6 +15232,9 @@
       <c r="F369" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G369" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H369" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14717,6 +15261,9 @@
       <c r="F370" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="G370" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H370" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14743,6 +15290,9 @@
       <c r="F371" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G371" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H371" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14769,6 +15319,9 @@
       <c r="F372" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G372" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H372" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14795,6 +15348,9 @@
       <c r="F373" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G373" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H373" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14821,6 +15377,9 @@
       <c r="F374" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G374" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H374" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14847,6 +15406,9 @@
       <c r="F375" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G375" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H375" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14873,6 +15435,9 @@
       <c r="F376" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G376" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H376" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14899,6 +15464,9 @@
       <c r="F377" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G377" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H377" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14925,6 +15493,9 @@
       <c r="F378" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G378" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H378" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14951,6 +15522,9 @@
       <c r="F379" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G379" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H379" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14977,6 +15551,9 @@
       <c r="F380" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G380" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H380" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15003,6 +15580,9 @@
       <c r="F381" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G381" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H381" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15029,6 +15609,9 @@
       <c r="F382" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G382" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H382" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15055,6 +15638,9 @@
       <c r="F383" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G383" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H383" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15081,6 +15667,9 @@
       <c r="F384" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G384" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H384" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15107,6 +15696,9 @@
       <c r="F385" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G385" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H385" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15133,6 +15725,9 @@
       <c r="F386" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G386" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H386" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15159,6 +15754,9 @@
       <c r="F387" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G387" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H387" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15185,6 +15783,9 @@
       <c r="F388" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G388" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H388" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15211,6 +15812,9 @@
       <c r="F389" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G389" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H389" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15237,6 +15841,9 @@
       <c r="F390" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G390" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H390" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15263,6 +15870,9 @@
       <c r="F391" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G391" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H391" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15289,6 +15899,9 @@
       <c r="F392" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G392" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H392" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15315,6 +15928,9 @@
       <c r="F393" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G393" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H393" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15341,6 +15957,9 @@
       <c r="F394" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G394" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H394" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15367,6 +15986,9 @@
       <c r="F395" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G395" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H395" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15393,6 +16015,9 @@
       <c r="F396" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G396" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H396" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15419,6 +16044,9 @@
       <c r="F397" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G397" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H397" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15445,6 +16073,9 @@
       <c r="F398" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G398" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H398" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15471,6 +16102,9 @@
       <c r="F399" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G399" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H399" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15497,6 +16131,9 @@
       <c r="F400" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G400" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H400" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15523,6 +16160,9 @@
       <c r="F401" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G401" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H401" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15549,6 +16189,9 @@
       <c r="F402" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G402" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H402" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15575,6 +16218,9 @@
       <c r="F403" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G403" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H403" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15601,6 +16247,9 @@
       <c r="F404" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G404" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H404" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15627,6 +16276,9 @@
       <c r="F405" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G405" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H405" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15653,6 +16305,9 @@
       <c r="F406" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G406" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H406" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15679,6 +16334,9 @@
       <c r="F407" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G407" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H407" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15705,6 +16363,9 @@
       <c r="F408" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G408" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H408" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15731,6 +16392,9 @@
       <c r="F409" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G409" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H409" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15757,6 +16421,9 @@
       <c r="F410" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G410" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H410" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15783,6 +16450,9 @@
       <c r="F411" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G411" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H411" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15809,6 +16479,9 @@
       <c r="F412" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G412" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H412" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15835,6 +16508,9 @@
       <c r="F413" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G413" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H413" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15861,6 +16537,9 @@
       <c r="F414" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G414" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H414" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15887,6 +16566,9 @@
       <c r="F415" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G415" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H415" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15913,6 +16595,9 @@
       <c r="F416" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G416" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H416" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15939,6 +16624,9 @@
       <c r="F417" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G417" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H417" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15965,6 +16653,9 @@
       <c r="F418" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G418" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H418" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15991,6 +16682,9 @@
       <c r="F419" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G419" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H419" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16017,6 +16711,9 @@
       <c r="F420" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G420" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H420" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16043,6 +16740,9 @@
       <c r="F421" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G421" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H421" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16069,6 +16769,9 @@
       <c r="F422" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G422" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H422" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16095,6 +16798,9 @@
       <c r="F423" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G423" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H423" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16121,6 +16827,9 @@
       <c r="F424" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G424" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H424" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16147,6 +16856,9 @@
       <c r="F425" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G425" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H425" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16173,6 +16885,9 @@
       <c r="F426" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G426" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H426" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16199,6 +16914,9 @@
       <c r="F427" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G427" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H427" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16225,6 +16943,9 @@
       <c r="F428" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G428" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H428" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16251,6 +16972,9 @@
       <c r="F429" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G429" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H429" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16277,6 +17001,9 @@
       <c r="F430" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G430" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H430" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16303,6 +17030,9 @@
       <c r="F431" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G431" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H431" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16329,6 +17059,9 @@
       <c r="F432" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G432" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H432" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16355,6 +17088,9 @@
       <c r="F433" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G433" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H433" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16381,6 +17117,9 @@
       <c r="F434" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G434" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H434" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16407,6 +17146,9 @@
       <c r="F435" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G435" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H435" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16433,6 +17175,9 @@
       <c r="F436" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G436" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H436" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16459,6 +17204,9 @@
       <c r="F437" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G437" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H437" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16485,6 +17233,9 @@
       <c r="F438" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G438" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H438" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16511,6 +17262,9 @@
       <c r="F439" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G439" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H439" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16537,6 +17291,9 @@
       <c r="F440" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G440" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H440" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16563,6 +17320,9 @@
       <c r="F441" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G441" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H441" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16589,6 +17349,9 @@
       <c r="F442" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G442" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H442" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16615,6 +17378,9 @@
       <c r="F443" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G443" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H443" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16641,6 +17407,9 @@
       <c r="F444" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G444" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H444" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16667,6 +17436,9 @@
       <c r="F445" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G445" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H445" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16693,6 +17465,9 @@
       <c r="F446" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G446" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H446" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16719,6 +17494,9 @@
       <c r="F447" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G447" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H447" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16745,6 +17523,9 @@
       <c r="F448" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G448" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H448" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16771,6 +17552,9 @@
       <c r="F449" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G449" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H449" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16797,6 +17581,9 @@
       <c r="F450" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G450" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H450" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16823,6 +17610,9 @@
       <c r="F451" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G451" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H451" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16849,6 +17639,9 @@
       <c r="F452" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G452" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H452" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16875,6 +17668,9 @@
       <c r="F453" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G453" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H453" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16901,6 +17697,9 @@
       <c r="F454" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G454" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H454" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16927,6 +17726,9 @@
       <c r="F455" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G455" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H455" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16953,6 +17755,9 @@
       <c r="F456" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G456" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H456" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16979,6 +17784,9 @@
       <c r="F457" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G457" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H457" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17005,6 +17813,9 @@
       <c r="F458" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G458" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H458" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17031,6 +17842,9 @@
       <c r="F459" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G459" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H459" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17057,6 +17871,9 @@
       <c r="F460" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G460" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H460" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17083,6 +17900,9 @@
       <c r="F461" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G461" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H461" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17109,6 +17929,9 @@
       <c r="F462" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G462" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H462" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17135,6 +17958,9 @@
       <c r="F463" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G463" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H463" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17161,6 +17987,9 @@
       <c r="F464" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G464" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H464" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17187,6 +18016,9 @@
       <c r="F465" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G465" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H465" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17213,6 +18045,9 @@
       <c r="F466" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G466" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H466" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17239,6 +18074,9 @@
       <c r="F467" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G467" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H467" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17265,6 +18103,9 @@
       <c r="F468" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G468" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H468" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17291,6 +18132,9 @@
       <c r="F469" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G469" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H469" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17317,6 +18161,9 @@
       <c r="F470" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G470" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H470" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17343,6 +18190,9 @@
       <c r="F471" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G471" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H471" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17369,6 +18219,9 @@
       <c r="F472" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G472" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H472" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17395,6 +18248,9 @@
       <c r="F473" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G473" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H473" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17421,6 +18277,9 @@
       <c r="F474" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G474" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H474" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17447,6 +18306,9 @@
       <c r="F475" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G475" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H475" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17473,6 +18335,9 @@
       <c r="F476" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G476" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H476" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17499,6 +18364,9 @@
       <c r="F477" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G477" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H477" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17525,6 +18393,9 @@
       <c r="F478" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G478" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H478" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17551,6 +18422,9 @@
       <c r="F479" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G479" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H479" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17577,6 +18451,9 @@
       <c r="F480" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G480" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H480" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17603,6 +18480,9 @@
       <c r="F481" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G481" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H481" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17629,6 +18509,9 @@
       <c r="F482" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G482" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H482" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17655,6 +18538,9 @@
       <c r="F483" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G483" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H483" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17681,6 +18567,9 @@
       <c r="F484" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G484" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H484" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17707,6 +18596,9 @@
       <c r="F485" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G485" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H485" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17733,6 +18625,9 @@
       <c r="F486" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G486" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H486" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17759,6 +18654,9 @@
       <c r="F487" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G487" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H487" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17785,6 +18683,9 @@
       <c r="F488" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G488" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H488" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17811,6 +18712,9 @@
       <c r="F489" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G489" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H489" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17837,6 +18741,9 @@
       <c r="F490" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G490" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H490" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17863,6 +18770,9 @@
       <c r="F491" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G491" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H491" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17889,6 +18799,9 @@
       <c r="F492" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G492" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H492" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17915,6 +18828,9 @@
       <c r="F493" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G493" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H493" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17941,6 +18857,9 @@
       <c r="F494" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G494" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H494" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17967,6 +18886,9 @@
       <c r="F495" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G495" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H495" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17993,6 +18915,9 @@
       <c r="F496" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G496" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H496" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18019,6 +18944,9 @@
       <c r="F497" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G497" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H497" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18045,6 +18973,9 @@
       <c r="F498" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G498" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H498" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18071,6 +19002,9 @@
       <c r="F499" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G499" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H499" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18097,6 +19031,9 @@
       <c r="F500" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G500" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H500" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18123,6 +19060,9 @@
       <c r="F501" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G501" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H501" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18149,6 +19089,9 @@
       <c r="F502" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G502" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H502" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18175,6 +19118,9 @@
       <c r="F503" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G503" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H503" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18201,6 +19147,9 @@
       <c r="F504" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G504" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H504" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18227,6 +19176,9 @@
       <c r="F505" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G505" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H505" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18253,6 +19205,9 @@
       <c r="F506" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G506" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H506" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18279,6 +19234,9 @@
       <c r="F507" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G507" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H507" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18305,6 +19263,9 @@
       <c r="F508" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G508" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H508" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18331,6 +19292,9 @@
       <c r="F509" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G509" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H509" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18357,6 +19321,9 @@
       <c r="F510" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G510" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H510" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18383,6 +19350,9 @@
       <c r="F511" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G511" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H511" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18409,6 +19379,9 @@
       <c r="F512" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G512" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H512" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18435,6 +19408,9 @@
       <c r="F513" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G513" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H513" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18461,6 +19437,9 @@
       <c r="F514" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G514" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H514" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18487,6 +19466,9 @@
       <c r="F515" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G515" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H515" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18513,6 +19495,9 @@
       <c r="F516" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G516" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H516" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18539,6 +19524,9 @@
       <c r="F517" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G517" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H517" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18565,6 +19553,9 @@
       <c r="F518" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G518" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H518" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18591,6 +19582,9 @@
       <c r="F519" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G519" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H519" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18617,6 +19611,9 @@
       <c r="F520" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G520" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H520" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18643,6 +19640,9 @@
       <c r="F521" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G521" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H521" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18669,6 +19669,9 @@
       <c r="F522" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G522" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H522" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18695,6 +19698,9 @@
       <c r="F523" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G523" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H523" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18721,6 +19727,9 @@
       <c r="F524" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G524" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H524" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18747,6 +19756,9 @@
       <c r="F525" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G525" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H525" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18773,6 +19785,9 @@
       <c r="F526" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G526" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H526" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18799,6 +19814,9 @@
       <c r="F527" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G527" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H527" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18825,6 +19843,9 @@
       <c r="F528" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G528" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H528" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18851,6 +19872,9 @@
       <c r="F529" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G529" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H529" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18877,6 +19901,9 @@
       <c r="F530" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G530" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H530" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18903,6 +19930,9 @@
       <c r="F531" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G531" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H531" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18929,6 +19959,9 @@
       <c r="F532" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G532" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H532" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18955,6 +19988,9 @@
       <c r="F533" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G533" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H533" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18981,6 +20017,9 @@
       <c r="F534" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G534" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H534" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19007,6 +20046,9 @@
       <c r="F535" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G535" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H535" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19033,6 +20075,9 @@
       <c r="F536" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G536" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H536" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19059,6 +20104,9 @@
       <c r="F537" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G537" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H537" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19085,6 +20133,9 @@
       <c r="F538" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G538" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H538" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19111,6 +20162,9 @@
       <c r="F539" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="G539" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H539" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19137,6 +20191,9 @@
       <c r="F540" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G540" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H540" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19163,6 +20220,9 @@
       <c r="F541" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G541" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H541" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19189,6 +20249,9 @@
       <c r="F542" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G542" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H542" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19215,6 +20278,9 @@
       <c r="F543" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G543" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H543" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19241,6 +20307,9 @@
       <c r="F544" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G544" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H544" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19267,6 +20336,9 @@
       <c r="F545" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G545" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H545" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19293,6 +20365,9 @@
       <c r="F546" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G546" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H546" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19319,6 +20394,9 @@
       <c r="F547" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G547" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H547" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19345,6 +20423,9 @@
       <c r="F548" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G548" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H548" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19371,6 +20452,9 @@
       <c r="F549" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G549" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H549" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19397,6 +20481,9 @@
       <c r="F550" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G550" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H550" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19423,6 +20510,9 @@
       <c r="F551" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G551" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H551" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19449,6 +20539,9 @@
       <c r="F552" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G552" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H552" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19475,6 +20568,9 @@
       <c r="F553" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G553" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H553" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19501,6 +20597,9 @@
       <c r="F554" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G554" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H554" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19527,6 +20626,9 @@
       <c r="F555" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G555" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H555" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19553,6 +20655,9 @@
       <c r="F556" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G556" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H556" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19579,6 +20684,9 @@
       <c r="F557" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G557" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H557" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19605,6 +20713,9 @@
       <c r="F558" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G558" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H558" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19631,6 +20742,9 @@
       <c r="F559" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G559" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H559" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19657,6 +20771,9 @@
       <c r="F560" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G560" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H560" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19683,6 +20800,9 @@
       <c r="F561" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G561" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H561" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19709,6 +20829,9 @@
       <c r="F562" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G562" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H562" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19735,6 +20858,9 @@
       <c r="F563" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G563" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H563" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19761,6 +20887,9 @@
       <c r="F564" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G564" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H564" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19787,6 +20916,9 @@
       <c r="F565" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G565" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H565" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19813,6 +20945,9 @@
       <c r="F566" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G566" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H566" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19839,6 +20974,9 @@
       <c r="F567" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G567" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H567" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19865,6 +21003,9 @@
       <c r="F568" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G568" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H568" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19891,6 +21032,9 @@
       <c r="F569" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G569" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H569" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19917,6 +21061,9 @@
       <c r="F570" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G570" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H570" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19943,6 +21090,9 @@
       <c r="F571" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G571" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H571" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19969,6 +21119,9 @@
       <c r="F572" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G572" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H572" s="1" t="s">
         <v>1082</v>
       </c>
@@ -19995,6 +21148,9 @@
       <c r="F573" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G573" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H573" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20021,6 +21177,9 @@
       <c r="F574" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G574" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H574" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20047,6 +21206,9 @@
       <c r="F575" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G575" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H575" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20073,6 +21235,9 @@
       <c r="F576" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G576" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H576" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20099,6 +21264,9 @@
       <c r="F577" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G577" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H577" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20125,6 +21293,9 @@
       <c r="F578" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G578" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H578" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20151,6 +21322,9 @@
       <c r="F579" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G579" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H579" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20177,6 +21351,9 @@
       <c r="F580" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G580" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H580" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20203,6 +21380,9 @@
       <c r="F581" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G581" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H581" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20229,6 +21409,9 @@
       <c r="F582" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G582" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H582" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20255,6 +21438,9 @@
       <c r="F583" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G583" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H583" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20281,6 +21467,9 @@
       <c r="F584" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G584" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H584" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20307,6 +21496,9 @@
       <c r="F585" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G585" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H585" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20333,6 +21525,9 @@
       <c r="F586" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G586" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H586" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20359,6 +21554,9 @@
       <c r="F587" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G587" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H587" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20385,6 +21583,9 @@
       <c r="F588" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G588" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H588" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20411,6 +21612,9 @@
       <c r="F589" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G589" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H589" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20437,6 +21641,9 @@
       <c r="F590" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G590" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H590" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20463,6 +21670,9 @@
       <c r="F591" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G591" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H591" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20489,6 +21699,9 @@
       <c r="F592" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G592" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H592" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20515,6 +21728,9 @@
       <c r="F593" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G593" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H593" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20541,6 +21757,9 @@
       <c r="F594" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G594" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H594" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20567,6 +21786,9 @@
       <c r="F595" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G595" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H595" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20593,6 +21815,9 @@
       <c r="F596" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G596" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H596" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20619,6 +21844,9 @@
       <c r="F597" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G597" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H597" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20645,6 +21873,9 @@
       <c r="F598" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G598" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H598" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20671,6 +21902,9 @@
       <c r="F599" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G599" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H599" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20697,6 +21931,9 @@
       <c r="F600" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G600" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H600" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20723,6 +21960,9 @@
       <c r="F601" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G601" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H601" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20749,6 +21989,9 @@
       <c r="F602" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G602" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H602" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20775,6 +22018,9 @@
       <c r="F603" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G603" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H603" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20801,6 +22047,9 @@
       <c r="F604" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G604" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H604" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20827,6 +22076,9 @@
       <c r="F605" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G605" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H605" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20853,6 +22105,9 @@
       <c r="F606" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G606" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H606" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20879,6 +22134,9 @@
       <c r="F607" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G607" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H607" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20905,6 +22163,9 @@
       <c r="F608" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G608" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H608" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20931,6 +22192,9 @@
       <c r="F609" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G609" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H609" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20957,6 +22221,9 @@
       <c r="F610" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G610" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H610" s="1" t="s">
         <v>1082</v>
       </c>
@@ -20983,6 +22250,9 @@
       <c r="F611" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G611" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H611" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21009,6 +22279,9 @@
       <c r="F612" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G612" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H612" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21035,6 +22308,9 @@
       <c r="F613" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G613" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H613" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21061,6 +22337,9 @@
       <c r="F614" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G614" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H614" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21087,6 +22366,9 @@
       <c r="F615" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G615" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H615" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21113,6 +22395,9 @@
       <c r="F616" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G616" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H616" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21139,6 +22424,9 @@
       <c r="F617" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G617" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H617" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21165,6 +22453,9 @@
       <c r="F618" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G618" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H618" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21191,6 +22482,9 @@
       <c r="F619" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G619" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H619" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21217,6 +22511,9 @@
       <c r="F620" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G620" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H620" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21243,6 +22540,9 @@
       <c r="F621" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G621" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H621" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21269,6 +22569,9 @@
       <c r="F622" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G622" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H622" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21295,6 +22598,9 @@
       <c r="F623" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G623" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H623" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21321,6 +22627,9 @@
       <c r="F624" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G624" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H624" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21347,6 +22656,9 @@
       <c r="F625" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G625" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H625" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21373,6 +22685,9 @@
       <c r="F626" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G626" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H626" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21399,6 +22714,9 @@
       <c r="F627" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G627" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H627" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21425,6 +22743,9 @@
       <c r="F628" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G628" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H628" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21451,6 +22772,9 @@
       <c r="F629" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G629" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H629" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21477,6 +22801,9 @@
       <c r="F630" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G630" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H630" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21503,6 +22830,9 @@
       <c r="F631" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G631" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H631" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21529,6 +22859,9 @@
       <c r="F632" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G632" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H632" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21555,6 +22888,9 @@
       <c r="F633" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G633" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H633" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21581,6 +22917,9 @@
       <c r="F634" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G634" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H634" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21607,6 +22946,9 @@
       <c r="F635" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G635" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H635" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21633,6 +22975,9 @@
       <c r="F636" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G636" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H636" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21659,6 +23004,9 @@
       <c r="F637" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G637" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H637" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21685,6 +23033,9 @@
       <c r="F638" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G638" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H638" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21711,6 +23062,9 @@
       <c r="F639" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G639" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H639" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21737,6 +23091,9 @@
       <c r="F640" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G640" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H640" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21763,6 +23120,9 @@
       <c r="F641" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G641" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H641" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21789,6 +23149,9 @@
       <c r="F642" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G642" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H642" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21815,6 +23178,9 @@
       <c r="F643" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G643" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H643" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21841,6 +23207,9 @@
       <c r="F644" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G644" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H644" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21867,6 +23236,9 @@
       <c r="F645" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G645" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H645" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21893,6 +23265,9 @@
       <c r="F646" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G646" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H646" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21919,6 +23294,9 @@
       <c r="F647" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G647" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H647" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21945,6 +23323,9 @@
       <c r="F648" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G648" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H648" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21971,6 +23352,9 @@
       <c r="F649" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G649" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H649" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21997,6 +23381,9 @@
       <c r="F650" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G650" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H650" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22023,6 +23410,9 @@
       <c r="F651" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G651" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H651" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22049,6 +23439,9 @@
       <c r="F652" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G652" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H652" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22075,6 +23468,9 @@
       <c r="F653" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G653" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H653" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22101,6 +23497,9 @@
       <c r="F654" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G654" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H654" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22127,6 +23526,9 @@
       <c r="F655" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G655" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H655" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22153,6 +23555,9 @@
       <c r="F656" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G656" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H656" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22179,6 +23584,9 @@
       <c r="F657" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G657" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H657" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22205,6 +23613,9 @@
       <c r="F658" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G658" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H658" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22231,6 +23642,9 @@
       <c r="F659" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G659" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H659" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22257,6 +23671,9 @@
       <c r="F660" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G660" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H660" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22283,6 +23700,9 @@
       <c r="F661" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G661" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H661" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22309,6 +23729,9 @@
       <c r="F662" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G662" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H662" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22335,6 +23758,9 @@
       <c r="F663" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G663" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H663" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22361,6 +23787,9 @@
       <c r="F664" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G664" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H664" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22387,6 +23816,9 @@
       <c r="F665" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G665" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H665" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22413,6 +23845,9 @@
       <c r="F666" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G666" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H666" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22439,6 +23874,9 @@
       <c r="F667" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G667" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H667" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22465,6 +23903,9 @@
       <c r="F668" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G668" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H668" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22491,6 +23932,9 @@
       <c r="F669" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G669" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H669" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22517,6 +23961,9 @@
       <c r="F670" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G670" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H670" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22543,6 +23990,9 @@
       <c r="F671" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G671" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H671" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22569,6 +24019,9 @@
       <c r="F672" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G672" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H672" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22595,6 +24048,9 @@
       <c r="F673" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G673" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H673" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22621,6 +24077,9 @@
       <c r="F674" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G674" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H674" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22647,6 +24106,9 @@
       <c r="F675" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G675" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H675" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22673,6 +24135,9 @@
       <c r="F676" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G676" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H676" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22699,6 +24164,9 @@
       <c r="F677" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G677" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H677" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22725,6 +24193,9 @@
       <c r="F678" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G678" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H678" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22751,6 +24222,9 @@
       <c r="F679" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G679" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H679" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22777,6 +24251,9 @@
       <c r="F680" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G680" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H680" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22803,6 +24280,9 @@
       <c r="F681" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G681" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H681" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22829,6 +24309,9 @@
       <c r="F682" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G682" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H682" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22855,6 +24338,9 @@
       <c r="F683" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G683" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H683" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22881,6 +24367,9 @@
       <c r="F684" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G684" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H684" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22907,6 +24396,9 @@
       <c r="F685" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G685" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H685" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22933,6 +24425,9 @@
       <c r="F686" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G686" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H686" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22959,6 +24454,9 @@
       <c r="F687" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G687" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H687" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22985,6 +24483,9 @@
       <c r="F688" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G688" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H688" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23011,6 +24512,9 @@
       <c r="F689" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G689" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H689" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23037,6 +24541,9 @@
       <c r="F690" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G690" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H690" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23063,6 +24570,9 @@
       <c r="F691" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G691" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H691" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23089,6 +24599,9 @@
       <c r="F692" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G692" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H692" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23115,6 +24628,9 @@
       <c r="F693" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G693" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H693" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23141,6 +24657,9 @@
       <c r="F694" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G694" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H694" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23167,6 +24686,9 @@
       <c r="F695" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G695" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H695" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23193,6 +24715,9 @@
       <c r="F696" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G696" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H696" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23219,6 +24744,9 @@
       <c r="F697" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G697" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H697" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23245,6 +24773,9 @@
       <c r="F698" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G698" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H698" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23271,6 +24802,9 @@
       <c r="F699" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G699" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H699" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23297,6 +24831,9 @@
       <c r="F700" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G700" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H700" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23323,6 +24860,9 @@
       <c r="F701" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G701" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H701" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23349,6 +24889,9 @@
       <c r="F702" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G702" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H702" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23375,10 +24918,13 @@
       <c r="F703" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G703" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H703" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="I703" s="1" t="s">
+      <c r="I703" s="2" t="s">
         <v>401</v>
       </c>
     </row>
@@ -23401,6 +24947,9 @@
       <c r="F704" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G704" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H704" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23408,7 +24957,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>396</v>
       </c>
@@ -23427,6 +24976,9 @@
       <c r="F705" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G705" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H705" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23434,7 +24986,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>396</v>
       </c>
@@ -23453,6 +25005,9 @@
       <c r="F706" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G706" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H706" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23460,7 +25015,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>396</v>
       </c>
@@ -23479,6 +25034,9 @@
       <c r="F707" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G707" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H707" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23486,7 +25044,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>396</v>
       </c>
@@ -23505,19 +25063,52 @@
       <c r="F708" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G708" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H708" s="1" t="s">
         <v>1082</v>
       </c>
       <c r="I708" s="1" t="s">
         <v>401</v>
+      </c>
+    </row>
+    <row r="709" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A709" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E709" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F709" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G709" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I709" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="L709" s="1" t="s">
+        <v>1092</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I201" r:id="rId1" xr:uid="{2D2F2F2B-5491-4591-87D8-83A4F04A2418}"/>
+    <hyperlink ref="I703" r:id="rId2" xr:uid="{8AF4FB60-3003-4963-BC88-8F52CA7CBCF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/scripts/autogenerated_parts.xlsx
+++ b/scripts/autogenerated_parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\kicad_wut\kicad_libraries\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F39CB0D-ACF0-4E9F-8042-2C1D76A2B814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2F676A-A618-4292-BEAE-3047799E4F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6441" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6449" uniqueCount="1101">
   <si>
     <t>Base Symbol</t>
   </si>
@@ -3313,6 +3313,21 @@
   </si>
   <si>
     <t>0.55</t>
+  </si>
+  <si>
+    <t>Lite-On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTST-C193KRKT-5A </t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/datasheet/2/239/LTST_C193KRKT_5A-1141706.pdf</t>
+  </si>
+  <si>
+    <t>0.35</t>
   </si>
 </sst>
 </file>
@@ -3648,11 +3663,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L709"/>
+  <dimension ref="A1:L710"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A678" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M711" sqref="M711"/>
+      <pane ySplit="1" topLeftCell="A702" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G710" sqref="G710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25102,6 +25117,32 @@
         <v>1092</v>
       </c>
     </row>
+    <row r="710" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A710" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E710" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F710" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G710" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I710" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/scripts/autogenerated_parts.xlsx
+++ b/scripts/autogenerated_parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\kicad_wut\kicad_libraries\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2F676A-A618-4292-BEAE-3047799E4F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22086B65-BEA0-4FB8-8EE9-FAF7F91C0871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6449" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6538" uniqueCount="1143">
   <si>
     <t>Base Symbol</t>
   </si>
@@ -3328,6 +3328,132 @@
   </si>
   <si>
     <t>0.35</t>
+  </si>
+  <si>
+    <t>CM_Choke</t>
+  </si>
+  <si>
+    <t>Wurth</t>
+  </si>
+  <si>
+    <t>Inductor_WUT:Wurth_WE-SL3_2-windings</t>
+  </si>
+  <si>
+    <t>744252101</t>
+  </si>
+  <si>
+    <t>5k</t>
+  </si>
+  <si>
+    <t>9.2x6.6mm</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/744253101.pdf</t>
+  </si>
+  <si>
+    <t>450mA</t>
+  </si>
+  <si>
+    <t>06035C104KAT2A</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/datasheet/2/40/KGM_X7R-3223212.pdf</t>
+  </si>
+  <si>
+    <t>TDK Lambda</t>
+  </si>
+  <si>
+    <t>ACM7060-301-2PL-TL01</t>
+  </si>
+  <si>
+    <t>https://product.tdk.com/system/files/dam/doc/product/emc/emc/cmf_cmc/catalog/cmf_commercial_power_acm7060_en.pdf</t>
+  </si>
+  <si>
+    <t>7x6mm</t>
+  </si>
+  <si>
+    <t>Inductor_WUT:TDK_ACM7060-xxx-2PL-TL01</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>ACM7060-701-2PL-TL01</t>
+  </si>
+  <si>
+    <t>700R</t>
+  </si>
+  <si>
+    <t>23.6A</t>
+  </si>
+  <si>
+    <t>18.9A</t>
+  </si>
+  <si>
+    <t>15.8A</t>
+  </si>
+  <si>
+    <t>12.1A</t>
+  </si>
+  <si>
+    <t>12A</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>4.15A</t>
+  </si>
+  <si>
+    <t>Capacitor_WUT:Wurth_WCAP-HSG5_8x10.5mm_SM</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>875575753005</t>
+  </si>
+  <si>
+    <t>875575553004</t>
+  </si>
+  <si>
+    <t>875575853003</t>
+  </si>
+  <si>
+    <t>875575853004</t>
+  </si>
+  <si>
+    <t>47u</t>
+  </si>
+  <si>
+    <t>8x10.5</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/875575853003.pdf</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/875575853004.pdf</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/875575753005.pdf</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/875575553004.pdf</t>
+  </si>
+  <si>
+    <t>Aluminium Hybrid Polymer</t>
   </si>
 </sst>
 </file>
@@ -3378,10 +3504,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3663,11 +3792,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L710"/>
+  <dimension ref="A1:L718"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A702" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G710" sqref="G710"/>
+      <pane ySplit="1" topLeftCell="A714" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A718" sqref="A718"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3740,8 +3869,11 @@
       <c r="H2" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3772,6 +3904,9 @@
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>1122</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3801,6 +3936,9 @@
       <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="L4" s="1" t="s">
+        <v>1123</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3830,6 +3968,9 @@
       <c r="I5" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="L5" s="1" t="s">
+        <v>1124</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -3859,6 +4000,9 @@
       <c r="I6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="L6" s="1" t="s">
+        <v>1125</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -3888,6 +4032,9 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="L7" s="1" t="s">
+        <v>1126</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -3917,6 +4064,9 @@
       <c r="I8" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="L8" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -3946,6 +4096,9 @@
       <c r="I9" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="L9" s="1" t="s">
+        <v>1128</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3972,8 +4125,11 @@
       <c r="H10" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -25141,6 +25297,262 @@
       </c>
       <c r="I710" s="1" t="s">
         <v>1099</v>
+      </c>
+    </row>
+    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A711" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D711" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E711" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F711" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G711" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I711" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="L711" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="712" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A712" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D712" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E712" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F712" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G712" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H712" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I712" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J712" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K712" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="713" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A713" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C713" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F713" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I713" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="L713" s="1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="714" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A714" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E714" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F714" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I714" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="L714" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A715" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C715" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D715" t="s">
+        <v>343</v>
+      </c>
+      <c r="E715" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F715" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G715" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H715" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I715" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J715" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K715" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A716" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C716" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D716" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E716" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F716" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G716" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H716" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I716" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="J716" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K716" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A717" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C717" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D717" t="s">
+        <v>352</v>
+      </c>
+      <c r="E717" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F717" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G717" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H717" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I717" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J717" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K717" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A718" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C718" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D718" t="s">
+        <v>367</v>
+      </c>
+      <c r="E718" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F718" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G718" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H718" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I718" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J718" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K718" s="1" t="s">
+        <v>1142</v>
       </c>
     </row>
   </sheetData>
@@ -25148,8 +25560,10 @@
   <hyperlinks>
     <hyperlink ref="I201" r:id="rId1" xr:uid="{2D2F2F2B-5491-4591-87D8-83A4F04A2418}"/>
     <hyperlink ref="I703" r:id="rId2" xr:uid="{8AF4FB60-3003-4963-BC88-8F52CA7CBCF0}"/>
+    <hyperlink ref="I2" r:id="rId3" xr:uid="{BDAB0851-D4BE-41AA-B828-B050901B5E9A}"/>
+    <hyperlink ref="I10" r:id="rId4" xr:uid="{3B851063-92A8-4DBD-B1EB-F7940D1220F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/scripts/autogenerated_parts.xlsx
+++ b/scripts/autogenerated_parts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\kicad_wut\kicad_libraries\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22086B65-BEA0-4FB8-8EE9-FAF7F91C0871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742E71C4-2AEE-43FA-8F39-9CDCF7C21D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6538" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6547" uniqueCount="1148">
   <si>
     <t>Base Symbol</t>
   </si>
@@ -3454,6 +3454,21 @@
   </si>
   <si>
     <t>Aluminium Hybrid Polymer</t>
+  </si>
+  <si>
+    <t>BLM15BD182SN1D</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/en-eu/products/productdetail?partno=BLM15BD182SN1%23</t>
+  </si>
+  <si>
+    <t>100mA</t>
   </si>
 </sst>
 </file>
@@ -3792,11 +3807,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L718"/>
+  <dimension ref="A1:L719"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A714" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A718" sqref="A718"/>
+      <pane ySplit="1" topLeftCell="A698" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L723" sqref="L723"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25555,6 +25570,35 @@
         <v>1142</v>
       </c>
     </row>
+    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A719" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C719" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E719" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F719" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G719" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I719" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L719" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/scripts/autogenerated_parts.xlsx
+++ b/scripts/autogenerated_parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\kicad_wut\kicad_libraries\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A5659A-C44E-449A-B793-C5C1883B92E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C85702A-C220-4078-9481-8FDDA2F7A61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10595" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10606" uniqueCount="1608">
   <si>
     <t>Base Symbol</t>
   </si>
@@ -4852,6 +4852,12 @@
   </si>
   <si>
     <t>1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0402C472K5RACTU </t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/datasheet/2/447/KEM_C1002_X7R_SMD-3316098.pdf</t>
   </si>
 </sst>
 </file>
@@ -5191,11 +5197,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1159"/>
+  <dimension ref="A1:L1160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1160" sqref="G1160"/>
+      <pane ySplit="1" topLeftCell="A1139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1169" sqref="G1169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42260,6 +42266,41 @@
       </c>
       <c r="L1159" s="1" t="s">
         <v>1604</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1160" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1160" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1160" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D1160" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1160" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1160" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1160" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H1160" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I1160" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="J1160" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1160" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/autogenerated_parts.xlsx
+++ b/scripts/autogenerated_parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\kicad_wut\kicad_libraries\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C85702A-C220-4078-9481-8FDDA2F7A61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2EF671-BE46-47A3-8F2B-BE55B8E00271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10606" uniqueCount="1608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10678" uniqueCount="1632">
   <si>
     <t>Base Symbol</t>
   </si>
@@ -4858,6 +4858,78 @@
   </si>
   <si>
     <t>https://www.mouser.co.uk/datasheet/2/447/KEM_C1002_X7R_SMD-3316098.pdf</t>
+  </si>
+  <si>
+    <t>TVS_Uni</t>
+  </si>
+  <si>
+    <t>nexperia</t>
+  </si>
+  <si>
+    <t>SOD323</t>
+  </si>
+  <si>
+    <t>5V0</t>
+  </si>
+  <si>
+    <t>PESD12VS1UA,115</t>
+  </si>
+  <si>
+    <t>PESD24VS1UA,115</t>
+  </si>
+  <si>
+    <t>PESD3V3U1UA,115</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/datasheet/2/916/PESD3V3U1UA_UB_UL-2938580.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/datasheet/2/916/PESD12VS1UA-3162518.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/datasheet/2/916/PESD24VS1UA-1383899.pdf</t>
+  </si>
+  <si>
+    <t>PESD5V0U1UA,115</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/datasheet/2/916/PESD5V0U1UA-2938318.pdf</t>
+  </si>
+  <si>
+    <t>PESD3V3U1UB,115</t>
+  </si>
+  <si>
+    <t>SOD523</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SOD-523</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/datasheet/2/916/PESD3V3U1UB-2938348.pdf</t>
+  </si>
+  <si>
+    <t>PESD5V0U1UB,115</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/datasheet/2/916/PESD5V0U1UB-2938586.pdf</t>
+  </si>
+  <si>
+    <t>PESD12VS1UB,115</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/datasheet/2/916/PESD12VS1UB-2583507.pdf</t>
+  </si>
+  <si>
+    <t>PESD15VS1UB,115</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/datasheet/2/916/PESD15VS1UB-2938203.pdf</t>
   </si>
 </sst>
 </file>
@@ -5197,11 +5269,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1160"/>
+  <dimension ref="A1:L1168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1169" sqref="G1169"/>
+      <pane ySplit="1" topLeftCell="A1138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1172" sqref="K1172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42303,6 +42375,238 @@
         <v>44</v>
       </c>
     </row>
+    <row r="1161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1161" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1161" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1161" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D1161" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1161" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F1161" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1161" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I1161" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J1161" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1162" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1162" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1162" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D1162" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E1162" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F1162" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1162" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I1162" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="J1162" s="1" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1163" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1163" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1163" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D1163" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1163" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F1163" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1163" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I1163" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="J1163" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1164" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1164" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1164" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D1164" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1164" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F1164" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1164" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I1164" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="J1164" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1165" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1165" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1165" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D1165" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1165" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F1165" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="G1165" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I1165" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="J1165" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1166" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1166" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D1166" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E1166" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F1166" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="G1166" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I1166" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="J1166" s="1" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1167" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1167" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1167" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D1167" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1167" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F1167" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="G1167" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I1167" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="J1167" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1168" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1168" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1168" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D1168" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1168" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F1168" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="G1168" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I1168" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="J1168" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -42311,8 +42615,9 @@
     <hyperlink ref="I2" r:id="rId3" xr:uid="{BDAB0851-D4BE-41AA-B828-B050901B5E9A}"/>
     <hyperlink ref="I10" r:id="rId4" xr:uid="{3B851063-92A8-4DBD-B1EB-F7940D1220F0}"/>
     <hyperlink ref="I13" r:id="rId5" xr:uid="{B1D1457F-13A6-4436-9C02-794D7CBE575E}"/>
+    <hyperlink ref="I1161" r:id="rId6" xr:uid="{83A70546-6E6C-4FF8-B32D-C37B4F876BA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/scripts/autogenerated_parts.xlsx
+++ b/scripts/autogenerated_parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\kicad_wut\kicad_libraries\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2EF671-BE46-47A3-8F2B-BE55B8E00271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9198176-9203-4F22-B02F-AF8D31EA1B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10678" uniqueCount="1632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10747" uniqueCount="1672">
   <si>
     <t>Base Symbol</t>
   </si>
@@ -3447,9 +3447,6 @@
     <t>47u</t>
   </si>
   <si>
-    <t>8x10.5</t>
-  </si>
-  <si>
     <t>https://www.we-online.com/components/products/datasheet/875575853003.pdf</t>
   </si>
   <si>
@@ -4930,6 +4927,129 @@
   </si>
   <si>
     <t>https://www.mouser.co.uk/datasheet/2/916/PESD15VS1UB-2938203.pdf</t>
+  </si>
+  <si>
+    <t>1206DD106MAT2A</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>744220</t>
+  </si>
+  <si>
+    <t>4m7</t>
+  </si>
+  <si>
+    <t>8x10.5mm</t>
+  </si>
+  <si>
+    <t>9.5x6mm</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/744220.pdf</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Diodes Inc</t>
+  </si>
+  <si>
+    <t>S1J-13-F</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SMA</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/datasheet/2/115/DIOD_S_A0007810797_1-2542915.pdf</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>Inductor_WUT:L_CommonMode_Wurth_WE-SL2</t>
+  </si>
+  <si>
+    <t>744231091</t>
+  </si>
+  <si>
+    <t>90R</t>
+  </si>
+  <si>
+    <t>Inductor_WUT:L_CommonMode_Wurth_WE-CNSW_0805</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/744231091.pdf</t>
+  </si>
+  <si>
+    <t>370mA</t>
+  </si>
+  <si>
+    <t>XEL4030-222MED</t>
+  </si>
+  <si>
+    <t>4x4mm</t>
+  </si>
+  <si>
+    <t>Inductor_WUT:Coilcraft_XEL4030</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>https://www.coilcraft.com/getmedia/8245f050-f190-4295-8c41-7c03d662ee3d/xel4030.pdf</t>
+  </si>
+  <si>
+    <t>5.8A</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>C3216X5R1E476M160AC</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>https://product.tdk.com/system/files/dam/doc/product/capacitor/ceramic/mlcc/catalog/mlcc_commercial_general_en.pdf</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERJB1CFR056U </t>
+  </si>
+  <si>
+    <t>56m</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_1020_2550Metric</t>
+  </si>
+  <si>
+    <t>http://industrial.panasonic.com/cdbs/www-data/pdf/RDN0000/AOA0000C325.pdf</t>
   </si>
 </sst>
 </file>
@@ -5269,11 +5389,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1168"/>
+  <dimension ref="A1:L1175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1172" sqref="K1172"/>
+      <pane ySplit="1" topLeftCell="A1141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1175" sqref="J1175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26906,7 +27026,7 @@
         <v>343</v>
       </c>
       <c r="E715" t="s">
-        <v>1137</v>
+        <v>1636</v>
       </c>
       <c r="F715" s="1" t="s">
         <v>1130</v>
@@ -26918,13 +27038,13 @@
         <v>1079</v>
       </c>
       <c r="I715" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="J715" s="1" t="s">
         <v>338</v>
       </c>
       <c r="K715" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="716" spans="1:12" x14ac:dyDescent="0.25">
@@ -26941,7 +27061,7 @@
         <v>1136</v>
       </c>
       <c r="E716" t="s">
-        <v>1137</v>
+        <v>1636</v>
       </c>
       <c r="F716" s="1" t="s">
         <v>1130</v>
@@ -26953,13 +27073,13 @@
         <v>1079</v>
       </c>
       <c r="I716" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J716" s="1" t="s">
         <v>338</v>
       </c>
       <c r="K716" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="717" spans="1:12" x14ac:dyDescent="0.25">
@@ -26976,7 +27096,7 @@
         <v>352</v>
       </c>
       <c r="E717" t="s">
-        <v>1137</v>
+        <v>1636</v>
       </c>
       <c r="F717" s="1" t="s">
         <v>1130</v>
@@ -26988,13 +27108,13 @@
         <v>1079</v>
       </c>
       <c r="I717" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J717" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K717" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="718" spans="1:12" x14ac:dyDescent="0.25">
@@ -27011,7 +27131,7 @@
         <v>367</v>
       </c>
       <c r="E718" t="s">
-        <v>1137</v>
+        <v>1636</v>
       </c>
       <c r="F718" s="1" t="s">
         <v>1130</v>
@@ -27023,13 +27143,13 @@
         <v>1079</v>
       </c>
       <c r="I718" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="J718" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K718" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.25">
@@ -27040,7 +27160,7 @@
         <v>1086</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D719" s="1" t="s">
         <v>493</v>
@@ -27049,16 +27169,16 @@
         <v>394</v>
       </c>
       <c r="F719" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G719" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="G719" s="1" t="s">
+      <c r="I719" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="I719" s="1" t="s">
+      <c r="L719" s="1" t="s">
         <v>1146</v>
-      </c>
-      <c r="L719" s="1" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="720" spans="1:12" x14ac:dyDescent="0.25">
@@ -27069,10 +27189,10 @@
         <v>51</v>
       </c>
       <c r="C720" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D720" t="s">
         <v>1148</v>
-      </c>
-      <c r="D720" t="s">
-        <v>1149</v>
       </c>
       <c r="E720" s="1" t="s">
         <v>394</v>
@@ -27087,7 +27207,7 @@
         <v>0.1</v>
       </c>
       <c r="I720" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J720" t="s">
         <v>127</v>
@@ -27104,7 +27224,7 @@
         <v>51</v>
       </c>
       <c r="C721" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D721" t="s">
         <v>113</v>
@@ -27122,7 +27242,7 @@
         <v>0.01</v>
       </c>
       <c r="I721" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J721" t="s">
         <v>63</v>
@@ -27139,7 +27259,7 @@
         <v>51</v>
       </c>
       <c r="C722" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D722" t="s">
         <v>139</v>
@@ -27157,7 +27277,7 @@
         <v>0.01</v>
       </c>
       <c r="I722" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J722" t="s">
         <v>68</v>
@@ -27174,7 +27294,7 @@
         <v>51</v>
       </c>
       <c r="C723" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D723" t="s">
         <v>94</v>
@@ -27192,7 +27312,7 @@
         <v>0.01</v>
       </c>
       <c r="I723" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J723" t="s">
         <v>63</v>
@@ -27209,7 +27329,7 @@
         <v>51</v>
       </c>
       <c r="C724" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D724" t="s">
         <v>165</v>
@@ -27227,7 +27347,7 @@
         <v>0.05</v>
       </c>
       <c r="I724" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J724" t="s">
         <v>43</v>
@@ -27244,7 +27364,7 @@
         <v>51</v>
       </c>
       <c r="C725" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D725" t="s">
         <v>113</v>
@@ -27262,7 +27382,7 @@
         <v>0.1</v>
       </c>
       <c r="I725" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J725" t="s">
         <v>68</v>
@@ -27279,10 +27399,10 @@
         <v>51</v>
       </c>
       <c r="C726" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D726" t="s">
         <v>1156</v>
-      </c>
-      <c r="D726" t="s">
-        <v>1157</v>
       </c>
       <c r="E726" s="1" t="s">
         <v>394</v>
@@ -27297,7 +27417,7 @@
         <v>0.01</v>
       </c>
       <c r="I726" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J726" t="s">
         <v>127</v>
@@ -27314,7 +27434,7 @@
         <v>51</v>
       </c>
       <c r="C727" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D727" t="s">
         <v>139</v>
@@ -27332,7 +27452,7 @@
         <v>0.01</v>
       </c>
       <c r="I727" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J727" t="s">
         <v>127</v>
@@ -27349,10 +27469,10 @@
         <v>51</v>
       </c>
       <c r="C728" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D728" t="s">
         <v>1159</v>
-      </c>
-      <c r="D728" t="s">
-        <v>1160</v>
       </c>
       <c r="E728" s="1" t="s">
         <v>394</v>
@@ -27367,7 +27487,7 @@
         <v>0.05</v>
       </c>
       <c r="I728" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J728" t="s">
         <v>63</v>
@@ -27384,7 +27504,7 @@
         <v>51</v>
       </c>
       <c r="C729" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D729" t="s">
         <v>244</v>
@@ -27402,7 +27522,7 @@
         <v>0.05</v>
       </c>
       <c r="I729" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J729" t="s">
         <v>68</v>
@@ -27419,7 +27539,7 @@
         <v>51</v>
       </c>
       <c r="C730" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D730" t="s">
         <v>253</v>
@@ -27437,7 +27557,7 @@
         <v>0.05</v>
       </c>
       <c r="I730" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J730" t="s">
         <v>43</v>
@@ -27454,7 +27574,7 @@
         <v>51</v>
       </c>
       <c r="C731" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D731" t="s">
         <v>227</v>
@@ -27472,7 +27592,7 @@
         <v>0.02</v>
       </c>
       <c r="I731" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J731" t="s">
         <v>63</v>
@@ -27489,7 +27609,7 @@
         <v>51</v>
       </c>
       <c r="C732" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D732" t="s">
         <v>96</v>
@@ -27507,7 +27627,7 @@
         <v>0.01</v>
       </c>
       <c r="I732" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J732" t="s">
         <v>63</v>
@@ -27524,10 +27644,10 @@
         <v>51</v>
       </c>
       <c r="C733" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D733" t="s">
         <v>1165</v>
-      </c>
-      <c r="D733" t="s">
-        <v>1166</v>
       </c>
       <c r="E733" s="1" t="s">
         <v>394</v>
@@ -27542,7 +27662,7 @@
         <v>168</v>
       </c>
       <c r="I733" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J733" t="s">
         <v>43</v>
@@ -27559,7 +27679,7 @@
         <v>51</v>
       </c>
       <c r="C734" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D734" t="s">
         <v>248</v>
@@ -27577,7 +27697,7 @@
         <v>0.05</v>
       </c>
       <c r="I734" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J734" t="s">
         <v>60</v>
@@ -27594,10 +27714,10 @@
         <v>51</v>
       </c>
       <c r="C735" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D735" t="s">
         <v>1168</v>
-      </c>
-      <c r="D735" t="s">
-        <v>1169</v>
       </c>
       <c r="E735" s="1" t="s">
         <v>394</v>
@@ -27612,7 +27732,7 @@
         <v>0.02</v>
       </c>
       <c r="I735" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J735" t="s">
         <v>63</v>
@@ -27629,7 +27749,7 @@
         <v>51</v>
       </c>
       <c r="C736" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D736" t="s">
         <v>326</v>
@@ -27645,10 +27765,10 @@
         <v>0.2</v>
       </c>
       <c r="I736" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J736" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="K736" t="s">
         <v>50</v>
@@ -27662,7 +27782,7 @@
         <v>51</v>
       </c>
       <c r="C737" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D737" t="s">
         <v>74</v>
@@ -27680,7 +27800,7 @@
         <v>0.02</v>
       </c>
       <c r="I737" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J737" t="s">
         <v>63</v>
@@ -27697,10 +27817,10 @@
         <v>51</v>
       </c>
       <c r="C738" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D738" t="s">
         <v>1173</v>
-      </c>
-      <c r="D738" t="s">
-        <v>1174</v>
       </c>
       <c r="E738" s="1" t="s">
         <v>394</v>
@@ -27715,7 +27835,7 @@
         <v>99</v>
       </c>
       <c r="I738" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J738" t="s">
         <v>63</v>
@@ -27732,7 +27852,7 @@
         <v>51</v>
       </c>
       <c r="C739" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D739" t="s">
         <v>105</v>
@@ -27750,7 +27870,7 @@
         <v>0.02</v>
       </c>
       <c r="I739" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J739" t="s">
         <v>63</v>
@@ -27767,7 +27887,7 @@
         <v>51</v>
       </c>
       <c r="C740" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D740" t="s">
         <v>94</v>
@@ -27785,7 +27905,7 @@
         <v>0.1</v>
       </c>
       <c r="I740" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J740" t="s">
         <v>43</v>
@@ -27802,7 +27922,7 @@
         <v>51</v>
       </c>
       <c r="C741" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D741" t="s">
         <v>170</v>
@@ -27820,7 +27940,7 @@
         <v>99</v>
       </c>
       <c r="I741" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J741" t="s">
         <v>63</v>
@@ -27837,7 +27957,7 @@
         <v>51</v>
       </c>
       <c r="C742" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D742" t="s">
         <v>115</v>
@@ -27855,7 +27975,7 @@
         <v>0.1</v>
       </c>
       <c r="I742" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J742" t="s">
         <v>63</v>
@@ -27872,7 +27992,7 @@
         <v>51</v>
       </c>
       <c r="C743" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D743" t="s">
         <v>176</v>
@@ -27890,7 +28010,7 @@
         <v>0.02</v>
       </c>
       <c r="I743" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J743" t="s">
         <v>63</v>
@@ -27907,7 +28027,7 @@
         <v>51</v>
       </c>
       <c r="C744" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D744" t="s">
         <v>146</v>
@@ -27925,7 +28045,7 @@
         <v>0.01</v>
       </c>
       <c r="I744" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J744" t="s">
         <v>43</v>
@@ -27942,7 +28062,7 @@
         <v>51</v>
       </c>
       <c r="C745" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D745" t="s">
         <v>94</v>
@@ -27960,7 +28080,7 @@
         <v>0.1</v>
       </c>
       <c r="I745" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J745" t="s">
         <v>127</v>
@@ -27977,7 +28097,7 @@
         <v>51</v>
       </c>
       <c r="C746" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D746" t="s">
         <v>113</v>
@@ -27995,7 +28115,7 @@
         <v>0.05</v>
       </c>
       <c r="I746" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J746" t="s">
         <v>60</v>
@@ -28012,7 +28132,7 @@
         <v>51</v>
       </c>
       <c r="C747" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D747" t="s">
         <v>163</v>
@@ -28030,7 +28150,7 @@
         <v>99</v>
       </c>
       <c r="I747" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J747" t="s">
         <v>63</v>
@@ -28047,10 +28167,10 @@
         <v>51</v>
       </c>
       <c r="C748" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D748" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E748" s="1" t="s">
         <v>394</v>
@@ -28065,7 +28185,7 @@
         <v>0.05</v>
       </c>
       <c r="I748" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J748" t="s">
         <v>43</v>
@@ -28082,7 +28202,7 @@
         <v>51</v>
       </c>
       <c r="C749" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D749" t="s">
         <v>146</v>
@@ -28100,7 +28220,7 @@
         <v>0.05</v>
       </c>
       <c r="I749" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J749" t="s">
         <v>127</v>
@@ -28117,10 +28237,10 @@
         <v>51</v>
       </c>
       <c r="C750" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D750" t="s">
         <v>1186</v>
-      </c>
-      <c r="D750" t="s">
-        <v>1187</v>
       </c>
       <c r="E750" s="1" t="s">
         <v>394</v>
@@ -28135,7 +28255,7 @@
         <v>99</v>
       </c>
       <c r="I750" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J750" t="s">
         <v>63</v>
@@ -28152,7 +28272,7 @@
         <v>51</v>
       </c>
       <c r="C751" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D751" t="s">
         <v>139</v>
@@ -28170,7 +28290,7 @@
         <v>0.1</v>
       </c>
       <c r="I751" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J751" t="s">
         <v>60</v>
@@ -28187,7 +28307,7 @@
         <v>51</v>
       </c>
       <c r="C752" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D752" t="s">
         <v>102</v>
@@ -28205,7 +28325,7 @@
         <v>55</v>
       </c>
       <c r="I752" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J752" t="s">
         <v>63</v>
@@ -28222,7 +28342,7 @@
         <v>51</v>
       </c>
       <c r="C753" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D753" t="s">
         <v>53</v>
@@ -28240,7 +28360,7 @@
         <v>0.05</v>
       </c>
       <c r="I753" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J753" t="s">
         <v>68</v>
@@ -28257,7 +28377,7 @@
         <v>51</v>
       </c>
       <c r="C754" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D754" t="s">
         <v>161</v>
@@ -28275,7 +28395,7 @@
         <v>0.01</v>
       </c>
       <c r="I754" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J754" t="s">
         <v>63</v>
@@ -28292,7 +28412,7 @@
         <v>51</v>
       </c>
       <c r="C755" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D755" t="s">
         <v>74</v>
@@ -28310,7 +28430,7 @@
         <v>0.01</v>
       </c>
       <c r="I755" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J755" t="s">
         <v>63</v>
@@ -28327,7 +28447,7 @@
         <v>51</v>
       </c>
       <c r="C756" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D756" t="s">
         <v>80</v>
@@ -28345,7 +28465,7 @@
         <v>0.01</v>
       </c>
       <c r="I756" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J756" t="s">
         <v>63</v>
@@ -28362,10 +28482,10 @@
         <v>51</v>
       </c>
       <c r="C757" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D757" t="s">
         <v>1194</v>
-      </c>
-      <c r="D757" t="s">
-        <v>1195</v>
       </c>
       <c r="E757" s="1" t="s">
         <v>394</v>
@@ -28380,7 +28500,7 @@
         <v>0.05</v>
       </c>
       <c r="I757" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J757" t="s">
         <v>63</v>
@@ -28397,7 +28517,7 @@
         <v>51</v>
       </c>
       <c r="C758" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D758" t="s">
         <v>90</v>
@@ -28415,7 +28535,7 @@
         <v>0.02</v>
       </c>
       <c r="I758" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J758" t="s">
         <v>63</v>
@@ -28432,7 +28552,7 @@
         <v>51</v>
       </c>
       <c r="C759" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D759" t="s">
         <v>236</v>
@@ -28450,7 +28570,7 @@
         <v>0.05</v>
       </c>
       <c r="I759" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J759" t="s">
         <v>63</v>
@@ -28467,7 +28587,7 @@
         <v>51</v>
       </c>
       <c r="C760" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D760" t="s">
         <v>185</v>
@@ -28485,7 +28605,7 @@
         <v>99</v>
       </c>
       <c r="I760" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J760" t="s">
         <v>63</v>
@@ -28502,7 +28622,7 @@
         <v>51</v>
       </c>
       <c r="C761" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D761" t="s">
         <v>82</v>
@@ -28520,7 +28640,7 @@
         <v>0.05</v>
       </c>
       <c r="I761" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J761" t="s">
         <v>68</v>
@@ -28537,10 +28657,10 @@
         <v>51</v>
       </c>
       <c r="C762" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D762" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E762" s="1" t="s">
         <v>394</v>
@@ -28555,7 +28675,7 @@
         <v>99</v>
       </c>
       <c r="I762" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J762" t="s">
         <v>63</v>
@@ -28572,7 +28692,7 @@
         <v>51</v>
       </c>
       <c r="C763" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D763" t="s">
         <v>107</v>
@@ -28590,7 +28710,7 @@
         <v>0.05</v>
       </c>
       <c r="I763" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J763" t="s">
         <v>63</v>
@@ -28607,7 +28727,7 @@
         <v>51</v>
       </c>
       <c r="C764" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D764" t="s">
         <v>78</v>
@@ -28625,7 +28745,7 @@
         <v>0.02</v>
       </c>
       <c r="I764" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J764" t="s">
         <v>63</v>
@@ -28642,7 +28762,7 @@
         <v>51</v>
       </c>
       <c r="C765" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D765" t="s">
         <v>80</v>
@@ -28660,7 +28780,7 @@
         <v>0.05</v>
       </c>
       <c r="I765" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J765" t="s">
         <v>60</v>
@@ -28677,7 +28797,7 @@
         <v>51</v>
       </c>
       <c r="C766" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D766" t="s">
         <v>82</v>
@@ -28695,7 +28815,7 @@
         <v>0.02</v>
       </c>
       <c r="I766" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J766" t="s">
         <v>63</v>
@@ -28712,7 +28832,7 @@
         <v>51</v>
       </c>
       <c r="C767" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D767" t="s">
         <v>111</v>
@@ -28730,7 +28850,7 @@
         <v>0.05</v>
       </c>
       <c r="I767" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J767" t="s">
         <v>63</v>
@@ -28747,7 +28867,7 @@
         <v>51</v>
       </c>
       <c r="C768" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D768" t="s">
         <v>153</v>
@@ -28765,7 +28885,7 @@
         <v>0.02</v>
       </c>
       <c r="I768" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J768" t="s">
         <v>63</v>
@@ -28782,7 +28902,7 @@
         <v>51</v>
       </c>
       <c r="C769" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D769" t="s">
         <v>84</v>
@@ -28800,7 +28920,7 @@
         <v>0.05</v>
       </c>
       <c r="I769" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J769" t="s">
         <v>63</v>
@@ -28817,7 +28937,7 @@
         <v>51</v>
       </c>
       <c r="C770" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D770" t="s">
         <v>109</v>
@@ -28835,7 +28955,7 @@
         <v>0.05</v>
       </c>
       <c r="I770" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J770" t="s">
         <v>63</v>
@@ -28852,7 +28972,7 @@
         <v>51</v>
       </c>
       <c r="C771" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D771" t="s">
         <v>72</v>
@@ -28870,7 +28990,7 @@
         <v>0.05</v>
       </c>
       <c r="I771" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J771" t="s">
         <v>63</v>
@@ -28887,7 +29007,7 @@
         <v>51</v>
       </c>
       <c r="C772" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D772" t="s">
         <v>98</v>
@@ -28905,7 +29025,7 @@
         <v>99</v>
       </c>
       <c r="I772" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J772" t="s">
         <v>63</v>
@@ -28922,10 +29042,10 @@
         <v>51</v>
       </c>
       <c r="C773" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D773" t="s">
         <v>1217</v>
-      </c>
-      <c r="D773" t="s">
-        <v>1218</v>
       </c>
       <c r="E773" s="1" t="s">
         <v>394</v>
@@ -28940,7 +29060,7 @@
         <v>55</v>
       </c>
       <c r="I773" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J773" t="s">
         <v>63</v>
@@ -28957,7 +29077,7 @@
         <v>51</v>
       </c>
       <c r="C774" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D774" t="s">
         <v>96</v>
@@ -28975,7 +29095,7 @@
         <v>0.05</v>
       </c>
       <c r="I774" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J774" t="s">
         <v>63</v>
@@ -28992,7 +29112,7 @@
         <v>51</v>
       </c>
       <c r="C775" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D775" t="s">
         <v>98</v>
@@ -29010,7 +29130,7 @@
         <v>55</v>
       </c>
       <c r="I775" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J775" t="s">
         <v>63</v>
@@ -29027,10 +29147,10 @@
         <v>51</v>
       </c>
       <c r="C776" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D776" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E776" s="1" t="s">
         <v>394</v>
@@ -29043,10 +29163,10 @@
         <v>0.1</v>
       </c>
       <c r="I776" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J776" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K776" t="s">
         <v>50</v>
@@ -29060,7 +29180,7 @@
         <v>51</v>
       </c>
       <c r="C777" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D777" t="s">
         <v>155</v>
@@ -29078,7 +29198,7 @@
         <v>55</v>
       </c>
       <c r="I777" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J777" t="s">
         <v>63</v>
@@ -29095,7 +29215,7 @@
         <v>51</v>
       </c>
       <c r="C778" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D778" t="s">
         <v>155</v>
@@ -29113,7 +29233,7 @@
         <v>168</v>
       </c>
       <c r="I778" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J778" t="s">
         <v>63</v>
@@ -29130,10 +29250,10 @@
         <v>51</v>
       </c>
       <c r="C779" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D779" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E779" s="1" t="s">
         <v>394</v>
@@ -29148,7 +29268,7 @@
         <v>55</v>
       </c>
       <c r="I779" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J779" t="s">
         <v>63</v>
@@ -29165,7 +29285,7 @@
         <v>51</v>
       </c>
       <c r="C780" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D780" t="s">
         <v>192</v>
@@ -29183,7 +29303,7 @@
         <v>168</v>
       </c>
       <c r="I780" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J780" t="s">
         <v>63</v>
@@ -29200,7 +29320,7 @@
         <v>51</v>
       </c>
       <c r="C781" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D781" t="s">
         <v>78</v>
@@ -29218,7 +29338,7 @@
         <v>0.05</v>
       </c>
       <c r="I781" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J781" t="s">
         <v>63</v>
@@ -29235,7 +29355,7 @@
         <v>51</v>
       </c>
       <c r="C782" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D782" t="s">
         <v>70</v>
@@ -29253,7 +29373,7 @@
         <v>168</v>
       </c>
       <c r="I782" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J782" t="s">
         <v>63</v>
@@ -29270,10 +29390,10 @@
         <v>51</v>
       </c>
       <c r="C783" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D783" t="s">
         <v>1228</v>
-      </c>
-      <c r="D783" t="s">
-        <v>1229</v>
       </c>
       <c r="E783" s="1" t="s">
         <v>394</v>
@@ -29288,7 +29408,7 @@
         <v>0.02</v>
       </c>
       <c r="I783" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J783" t="s">
         <v>63</v>
@@ -29305,10 +29425,10 @@
         <v>51</v>
       </c>
       <c r="C784" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D784" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E784" s="1" t="s">
         <v>394</v>
@@ -29323,7 +29443,7 @@
         <v>55</v>
       </c>
       <c r="I784" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J784" t="s">
         <v>63</v>
@@ -29340,10 +29460,10 @@
         <v>51</v>
       </c>
       <c r="C785" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D785" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E785" s="1" t="s">
         <v>394</v>
@@ -29358,7 +29478,7 @@
         <v>0.1</v>
       </c>
       <c r="I785" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J785" t="s">
         <v>63</v>
@@ -29375,7 +29495,7 @@
         <v>51</v>
       </c>
       <c r="C786" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D786" t="s">
         <v>148</v>
@@ -29393,7 +29513,7 @@
         <v>0.05</v>
       </c>
       <c r="I786" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J786" t="s">
         <v>68</v>
@@ -29410,10 +29530,10 @@
         <v>51</v>
       </c>
       <c r="C787" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D787" t="s">
         <v>1233</v>
-      </c>
-      <c r="D787" t="s">
-        <v>1234</v>
       </c>
       <c r="E787" s="1" t="s">
         <v>394</v>
@@ -29426,7 +29546,7 @@
         <v>0.1</v>
       </c>
       <c r="I787" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J787" t="s">
         <v>68</v>
@@ -29443,10 +29563,10 @@
         <v>51</v>
       </c>
       <c r="C788" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D788" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E788" s="1" t="s">
         <v>394</v>
@@ -29461,7 +29581,7 @@
         <v>99</v>
       </c>
       <c r="I788" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J788" t="s">
         <v>63</v>
@@ -29478,7 +29598,7 @@
         <v>51</v>
       </c>
       <c r="C789" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D789" t="s">
         <v>74</v>
@@ -29496,7 +29616,7 @@
         <v>0.05</v>
       </c>
       <c r="I789" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J789" t="s">
         <v>63</v>
@@ -29513,7 +29633,7 @@
         <v>51</v>
       </c>
       <c r="C790" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D790" t="s">
         <v>53</v>
@@ -29531,7 +29651,7 @@
         <v>0.05</v>
       </c>
       <c r="I790" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J790" t="s">
         <v>43</v>
@@ -29548,10 +29668,10 @@
         <v>51</v>
       </c>
       <c r="C791" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D791" t="s">
         <v>1238</v>
-      </c>
-      <c r="D791" t="s">
-        <v>1239</v>
       </c>
       <c r="E791" s="1" t="s">
         <v>394</v>
@@ -29564,7 +29684,7 @@
         <v>0.1</v>
       </c>
       <c r="I791" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J791" t="s">
         <v>127</v>
@@ -29581,10 +29701,10 @@
         <v>51</v>
       </c>
       <c r="C792" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D792" t="s">
         <v>1240</v>
-      </c>
-      <c r="D792" t="s">
-        <v>1241</v>
       </c>
       <c r="E792" s="1" t="s">
         <v>394</v>
@@ -29597,7 +29717,7 @@
         <v>0.1</v>
       </c>
       <c r="I792" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J792" t="s">
         <v>68</v>
@@ -29614,7 +29734,7 @@
         <v>51</v>
       </c>
       <c r="C793" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D793" t="s">
         <v>102</v>
@@ -29632,7 +29752,7 @@
         <v>0.02</v>
       </c>
       <c r="I793" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J793" t="s">
         <v>63</v>
@@ -29649,7 +29769,7 @@
         <v>51</v>
       </c>
       <c r="C794" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D794" t="s">
         <v>151</v>
@@ -29667,7 +29787,7 @@
         <v>0.02</v>
       </c>
       <c r="I794" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J794" t="s">
         <v>63</v>
@@ -29684,7 +29804,7 @@
         <v>51</v>
       </c>
       <c r="C795" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D795" t="s">
         <v>185</v>
@@ -29702,7 +29822,7 @@
         <v>55</v>
       </c>
       <c r="I795" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J795" t="s">
         <v>63</v>
@@ -29719,7 +29839,7 @@
         <v>51</v>
       </c>
       <c r="C796" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D796" t="s">
         <v>102</v>
@@ -29737,7 +29857,7 @@
         <v>0.05</v>
       </c>
       <c r="I796" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J796" t="s">
         <v>68</v>
@@ -29754,7 +29874,7 @@
         <v>51</v>
       </c>
       <c r="C797" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D797" t="s">
         <v>53</v>
@@ -29772,7 +29892,7 @@
         <v>0.01</v>
       </c>
       <c r="I797" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J797" t="s">
         <v>63</v>
@@ -29789,7 +29909,7 @@
         <v>51</v>
       </c>
       <c r="C798" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D798" t="s">
         <v>139</v>
@@ -29807,7 +29927,7 @@
         <v>0.02</v>
       </c>
       <c r="I798" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J798" t="s">
         <v>43</v>
@@ -29824,7 +29944,7 @@
         <v>51</v>
       </c>
       <c r="C799" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D799" t="s">
         <v>53</v>
@@ -29842,7 +29962,7 @@
         <v>168</v>
       </c>
       <c r="I799" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J799" t="s">
         <v>63</v>
@@ -29859,7 +29979,7 @@
         <v>51</v>
       </c>
       <c r="C800" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D800" t="s">
         <v>206</v>
@@ -29877,7 +29997,7 @@
         <v>0.01</v>
       </c>
       <c r="I800" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J800" t="s">
         <v>43</v>
@@ -29894,7 +30014,7 @@
         <v>51</v>
       </c>
       <c r="C801" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D801" t="s">
         <v>151</v>
@@ -29912,7 +30032,7 @@
         <v>0.01</v>
       </c>
       <c r="I801" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J801" t="s">
         <v>63</v>
@@ -29929,10 +30049,10 @@
         <v>51</v>
       </c>
       <c r="C802" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D802" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E802" s="1" t="s">
         <v>394</v>
@@ -29945,10 +30065,10 @@
         <v>0.1</v>
       </c>
       <c r="I802" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J802" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K802" t="s">
         <v>50</v>
@@ -29962,7 +30082,7 @@
         <v>51</v>
       </c>
       <c r="C803" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D803" t="s">
         <v>40</v>
@@ -29978,7 +30098,7 @@
         <v>0.2</v>
       </c>
       <c r="I803" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J803" t="s">
         <v>43</v>
@@ -29995,10 +30115,10 @@
         <v>51</v>
       </c>
       <c r="C804" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D804" t="s">
         <v>1253</v>
-      </c>
-      <c r="D804" t="s">
-        <v>1254</v>
       </c>
       <c r="E804" s="1" t="s">
         <v>394</v>
@@ -30011,7 +30131,7 @@
         <v>0.1</v>
       </c>
       <c r="I804" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J804" t="s">
         <v>68</v>
@@ -30028,7 +30148,7 @@
         <v>51</v>
       </c>
       <c r="C805" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D805" t="s">
         <v>92</v>
@@ -30046,7 +30166,7 @@
         <v>0.1</v>
       </c>
       <c r="I805" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J805" t="s">
         <v>63</v>
@@ -30063,10 +30183,10 @@
         <v>51</v>
       </c>
       <c r="C806" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D806" t="s">
         <v>1256</v>
-      </c>
-      <c r="D806" t="s">
-        <v>1257</v>
       </c>
       <c r="E806" s="1" t="s">
         <v>394</v>
@@ -30079,7 +30199,7 @@
         <v>0.1</v>
       </c>
       <c r="I806" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J806" t="s">
         <v>68</v>
@@ -30096,10 +30216,10 @@
         <v>51</v>
       </c>
       <c r="C807" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D807" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E807" s="1" t="s">
         <v>394</v>
@@ -30112,10 +30232,10 @@
         <v>0.1</v>
       </c>
       <c r="I807" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J807" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K807" t="s">
         <v>50</v>
@@ -30129,10 +30249,10 @@
         <v>51</v>
       </c>
       <c r="C808" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D808" t="s">
         <v>1259</v>
-      </c>
-      <c r="D808" t="s">
-        <v>1260</v>
       </c>
       <c r="E808" s="1" t="s">
         <v>394</v>
@@ -30147,7 +30267,7 @@
         <v>0.05</v>
       </c>
       <c r="I808" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J808" t="s">
         <v>63</v>
@@ -30164,7 +30284,7 @@
         <v>51</v>
       </c>
       <c r="C809" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D809" t="s">
         <v>139</v>
@@ -30182,7 +30302,7 @@
         <v>0.1</v>
       </c>
       <c r="I809" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J809" t="s">
         <v>43</v>
@@ -30199,7 +30319,7 @@
         <v>51</v>
       </c>
       <c r="C810" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D810" t="s">
         <v>21</v>
@@ -30215,10 +30335,10 @@
         <v>0.1</v>
       </c>
       <c r="I810" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J810" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="K810" t="s">
         <v>50</v>
@@ -30232,10 +30352,10 @@
         <v>51</v>
       </c>
       <c r="C811" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D811" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E811" s="1" t="s">
         <v>394</v>
@@ -30248,10 +30368,10 @@
         <v>0.1</v>
       </c>
       <c r="I811" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J811" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K811" t="s">
         <v>50</v>
@@ -30265,7 +30385,7 @@
         <v>51</v>
       </c>
       <c r="C812" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D812" t="s">
         <v>74</v>
@@ -30283,7 +30403,7 @@
         <v>0.1</v>
       </c>
       <c r="I812" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J812" t="s">
         <v>63</v>
@@ -30300,7 +30420,7 @@
         <v>51</v>
       </c>
       <c r="C813" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D813" t="s">
         <v>123</v>
@@ -30316,10 +30436,10 @@
         <v>0.1</v>
       </c>
       <c r="I813" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J813" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K813" t="s">
         <v>50</v>
@@ -30333,10 +30453,10 @@
         <v>51</v>
       </c>
       <c r="C814" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D814" t="s">
         <v>1266</v>
-      </c>
-      <c r="D814" t="s">
-        <v>1267</v>
       </c>
       <c r="E814" s="1" t="s">
         <v>394</v>
@@ -30349,10 +30469,10 @@
         <v>0.2</v>
       </c>
       <c r="I814" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J814" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="K814" t="s">
         <v>50</v>
@@ -30366,7 +30486,7 @@
         <v>51</v>
       </c>
       <c r="C815" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D815" t="s">
         <v>90</v>
@@ -30384,7 +30504,7 @@
         <v>0.05</v>
       </c>
       <c r="I815" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J815" t="s">
         <v>63</v>
@@ -30401,7 +30521,7 @@
         <v>51</v>
       </c>
       <c r="C816" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D816" t="s">
         <v>214</v>
@@ -30419,7 +30539,7 @@
         <v>0.05</v>
       </c>
       <c r="I816" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J816" t="s">
         <v>63</v>
@@ -30436,7 +30556,7 @@
         <v>51</v>
       </c>
       <c r="C817" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D817" t="s">
         <v>102</v>
@@ -30454,7 +30574,7 @@
         <v>0.05</v>
       </c>
       <c r="I817" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J817" t="s">
         <v>127</v>
@@ -30471,7 +30591,7 @@
         <v>51</v>
       </c>
       <c r="C818" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D818" t="s">
         <v>82</v>
@@ -30489,7 +30609,7 @@
         <v>0.05</v>
       </c>
       <c r="I818" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J818" t="s">
         <v>63</v>
@@ -30506,7 +30626,7 @@
         <v>51</v>
       </c>
       <c r="C819" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D819" t="s">
         <v>25</v>
@@ -30522,7 +30642,7 @@
         <v>0.2</v>
       </c>
       <c r="I819" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J819" t="s">
         <v>127</v>
@@ -30539,7 +30659,7 @@
         <v>51</v>
       </c>
       <c r="C820" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D820" t="s">
         <v>78</v>
@@ -30557,7 +30677,7 @@
         <v>0.1</v>
       </c>
       <c r="I820" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J820" t="s">
         <v>63</v>
@@ -30574,7 +30694,7 @@
         <v>51</v>
       </c>
       <c r="C821" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D821" t="s">
         <v>96</v>
@@ -30592,7 +30712,7 @@
         <v>0.05</v>
       </c>
       <c r="I821" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J821" t="s">
         <v>127</v>
@@ -30609,7 +30729,7 @@
         <v>51</v>
       </c>
       <c r="C822" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D822" t="s">
         <v>244</v>
@@ -30627,7 +30747,7 @@
         <v>0.1</v>
       </c>
       <c r="I822" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J822" t="s">
         <v>63</v>
@@ -30644,7 +30764,7 @@
         <v>51</v>
       </c>
       <c r="C823" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D823" t="s">
         <v>90</v>
@@ -30662,7 +30782,7 @@
         <v>0.1</v>
       </c>
       <c r="I823" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J823" t="s">
         <v>63</v>
@@ -30679,7 +30799,7 @@
         <v>51</v>
       </c>
       <c r="C824" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D824" t="s">
         <v>139</v>
@@ -30697,7 +30817,7 @@
         <v>0.05</v>
       </c>
       <c r="I824" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J824" t="s">
         <v>43</v>
@@ -30714,10 +30834,10 @@
         <v>51</v>
       </c>
       <c r="C825" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D825" t="s">
         <v>1278</v>
-      </c>
-      <c r="D825" t="s">
-        <v>1279</v>
       </c>
       <c r="E825" s="1" t="s">
         <v>394</v>
@@ -30732,7 +30852,7 @@
         <v>0.05</v>
       </c>
       <c r="I825" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J825" t="s">
         <v>63</v>
@@ -30749,7 +30869,7 @@
         <v>51</v>
       </c>
       <c r="C826" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D826" t="s">
         <v>88</v>
@@ -30767,7 +30887,7 @@
         <v>0.05</v>
       </c>
       <c r="I826" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J826" t="s">
         <v>63</v>
@@ -30784,7 +30904,7 @@
         <v>51</v>
       </c>
       <c r="C827" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D827" t="s">
         <v>70</v>
@@ -30802,7 +30922,7 @@
         <v>55</v>
       </c>
       <c r="I827" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J827" t="s">
         <v>63</v>
@@ -30819,10 +30939,10 @@
         <v>51</v>
       </c>
       <c r="C828" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D828" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E828" s="1" t="s">
         <v>394</v>
@@ -30837,7 +30957,7 @@
         <v>0.05</v>
       </c>
       <c r="I828" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J828" t="s">
         <v>63</v>
@@ -30854,7 +30974,7 @@
         <v>51</v>
       </c>
       <c r="C829" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D829" t="s">
         <v>256</v>
@@ -30872,7 +30992,7 @@
         <v>0.1</v>
       </c>
       <c r="I829" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J829" t="s">
         <v>63</v>
@@ -30889,10 +31009,10 @@
         <v>51</v>
       </c>
       <c r="C830" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D830" t="s">
         <v>1284</v>
-      </c>
-      <c r="D830" t="s">
-        <v>1285</v>
       </c>
       <c r="E830" s="1" t="s">
         <v>394</v>
@@ -30907,7 +31027,7 @@
         <v>55</v>
       </c>
       <c r="I830" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J830" t="s">
         <v>63</v>
@@ -30924,7 +31044,7 @@
         <v>51</v>
       </c>
       <c r="C831" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D831" t="s">
         <v>224</v>
@@ -30942,7 +31062,7 @@
         <v>0.05</v>
       </c>
       <c r="I831" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J831" t="s">
         <v>63</v>
@@ -30959,7 +31079,7 @@
         <v>51</v>
       </c>
       <c r="C832" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D832" t="s">
         <v>102</v>
@@ -30977,7 +31097,7 @@
         <v>0.05</v>
       </c>
       <c r="I832" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J832" t="s">
         <v>43</v>
@@ -30994,7 +31114,7 @@
         <v>51</v>
       </c>
       <c r="C833" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D833" t="s">
         <v>80</v>
@@ -31012,7 +31132,7 @@
         <v>0.1</v>
       </c>
       <c r="I833" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J833" t="s">
         <v>43</v>
@@ -31029,7 +31149,7 @@
         <v>51</v>
       </c>
       <c r="C834" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D834" t="s">
         <v>94</v>
@@ -31047,7 +31167,7 @@
         <v>0.05</v>
       </c>
       <c r="I834" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J834" t="s">
         <v>43</v>
@@ -31064,7 +31184,7 @@
         <v>51</v>
       </c>
       <c r="C835" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D835" t="s">
         <v>174</v>
@@ -31082,7 +31202,7 @@
         <v>168</v>
       </c>
       <c r="I835" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J835" t="s">
         <v>63</v>
@@ -31099,7 +31219,7 @@
         <v>51</v>
       </c>
       <c r="C836" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D836" t="s">
         <v>182</v>
@@ -31117,7 +31237,7 @@
         <v>0.05</v>
       </c>
       <c r="I836" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J836" t="s">
         <v>63</v>
@@ -31134,7 +31254,7 @@
         <v>51</v>
       </c>
       <c r="C837" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D837" t="s">
         <v>148</v>
@@ -31152,7 +31272,7 @@
         <v>0.1</v>
       </c>
       <c r="I837" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J837" t="s">
         <v>127</v>
@@ -31169,7 +31289,7 @@
         <v>51</v>
       </c>
       <c r="C838" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D838" t="s">
         <v>80</v>
@@ -31187,7 +31307,7 @@
         <v>0.1</v>
       </c>
       <c r="I838" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J838" t="s">
         <v>63</v>
@@ -31204,7 +31324,7 @@
         <v>51</v>
       </c>
       <c r="C839" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D839" t="s">
         <v>151</v>
@@ -31222,7 +31342,7 @@
         <v>0.05</v>
       </c>
       <c r="I839" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J839" t="s">
         <v>63</v>
@@ -31239,7 +31359,7 @@
         <v>51</v>
       </c>
       <c r="C840" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D840" t="s">
         <v>121</v>
@@ -31255,7 +31375,7 @@
         <v>0.1</v>
       </c>
       <c r="I840" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J840" t="s">
         <v>127</v>
@@ -31272,7 +31392,7 @@
         <v>51</v>
       </c>
       <c r="C841" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D841" t="s">
         <v>33</v>
@@ -31288,10 +31408,10 @@
         <v>0.2</v>
       </c>
       <c r="I841" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J841" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="K841" t="s">
         <v>50</v>
@@ -31305,7 +31425,7 @@
         <v>51</v>
       </c>
       <c r="C842" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D842" t="s">
         <v>227</v>
@@ -31323,7 +31443,7 @@
         <v>0.05</v>
       </c>
       <c r="I842" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J842" t="s">
         <v>63</v>
@@ -31340,7 +31460,7 @@
         <v>51</v>
       </c>
       <c r="C843" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D843" t="s">
         <v>59</v>
@@ -31358,7 +31478,7 @@
         <v>0.05</v>
       </c>
       <c r="I843" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J843" t="s">
         <v>63</v>
@@ -31375,10 +31495,10 @@
         <v>51</v>
       </c>
       <c r="C844" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D844" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E844" s="1" t="s">
         <v>394</v>
@@ -31393,7 +31513,7 @@
         <v>0.05</v>
       </c>
       <c r="I844" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J844" t="s">
         <v>43</v>
@@ -31410,10 +31530,10 @@
         <v>51</v>
       </c>
       <c r="C845" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D845" t="s">
         <v>1300</v>
-      </c>
-      <c r="D845" t="s">
-        <v>1301</v>
       </c>
       <c r="E845" s="1" t="s">
         <v>394</v>
@@ -31428,7 +31548,7 @@
         <v>55</v>
       </c>
       <c r="I845" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J845" t="s">
         <v>63</v>
@@ -31445,10 +31565,10 @@
         <v>51</v>
       </c>
       <c r="C846" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D846" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E846" s="1" t="s">
         <v>394</v>
@@ -31463,7 +31583,7 @@
         <v>0.1</v>
       </c>
       <c r="I846" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J846" t="s">
         <v>63</v>
@@ -31480,7 +31600,7 @@
         <v>51</v>
       </c>
       <c r="C847" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D847" t="s">
         <v>199</v>
@@ -31498,7 +31618,7 @@
         <v>55</v>
       </c>
       <c r="I847" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J847" t="s">
         <v>63</v>
@@ -31515,10 +31635,10 @@
         <v>51</v>
       </c>
       <c r="C848" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D848" t="s">
         <v>1304</v>
-      </c>
-      <c r="D848" t="s">
-        <v>1305</v>
       </c>
       <c r="E848" s="1" t="s">
         <v>394</v>
@@ -31533,7 +31653,7 @@
         <v>55</v>
       </c>
       <c r="I848" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J848" t="s">
         <v>63</v>
@@ -31550,7 +31670,7 @@
         <v>51</v>
       </c>
       <c r="C849" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D849" t="s">
         <v>62</v>
@@ -31568,7 +31688,7 @@
         <v>0.05</v>
       </c>
       <c r="I849" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J849" t="s">
         <v>43</v>
@@ -31585,7 +31705,7 @@
         <v>51</v>
       </c>
       <c r="C850" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D850" t="s">
         <v>244</v>
@@ -31603,7 +31723,7 @@
         <v>0.05</v>
       </c>
       <c r="I850" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J850" t="s">
         <v>43</v>
@@ -31620,7 +31740,7 @@
         <v>51</v>
       </c>
       <c r="C851" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D851" t="s">
         <v>174</v>
@@ -31638,7 +31758,7 @@
         <v>55</v>
       </c>
       <c r="I851" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J851" t="s">
         <v>63</v>
@@ -31655,7 +31775,7 @@
         <v>51</v>
       </c>
       <c r="C852" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D852" t="s">
         <v>94</v>
@@ -31673,7 +31793,7 @@
         <v>0.05</v>
       </c>
       <c r="I852" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J852" t="s">
         <v>68</v>
@@ -31690,7 +31810,7 @@
         <v>51</v>
       </c>
       <c r="C853" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D853" t="s">
         <v>59</v>
@@ -31708,7 +31828,7 @@
         <v>0.05</v>
       </c>
       <c r="I853" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J853" t="s">
         <v>60</v>
@@ -31725,10 +31845,10 @@
         <v>51</v>
       </c>
       <c r="C854" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D854" t="s">
         <v>1311</v>
-      </c>
-      <c r="D854" t="s">
-        <v>1312</v>
       </c>
       <c r="E854" s="1" t="s">
         <v>394</v>
@@ -31743,7 +31863,7 @@
         <v>55</v>
       </c>
       <c r="I854" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J854" t="s">
         <v>63</v>
@@ -31760,10 +31880,10 @@
         <v>51</v>
       </c>
       <c r="C855" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D855" t="s">
         <v>1313</v>
-      </c>
-      <c r="D855" t="s">
-        <v>1314</v>
       </c>
       <c r="E855" s="1" t="s">
         <v>394</v>
@@ -31776,10 +31896,10 @@
         <v>0.1</v>
       </c>
       <c r="I855" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J855" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K855" t="s">
         <v>50</v>
@@ -31793,10 +31913,10 @@
         <v>51</v>
       </c>
       <c r="C856" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D856" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E856" s="1" t="s">
         <v>394</v>
@@ -31811,7 +31931,7 @@
         <v>55</v>
       </c>
       <c r="I856" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J856" t="s">
         <v>63</v>
@@ -31828,10 +31948,10 @@
         <v>51</v>
       </c>
       <c r="C857" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D857" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E857" s="1" t="s">
         <v>394</v>
@@ -31846,7 +31966,7 @@
         <v>168</v>
       </c>
       <c r="I857" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J857" t="s">
         <v>63</v>
@@ -31863,10 +31983,10 @@
         <v>51</v>
       </c>
       <c r="C858" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D858" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E858" s="1" t="s">
         <v>394</v>
@@ -31881,7 +32001,7 @@
         <v>168</v>
       </c>
       <c r="I858" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J858" t="s">
         <v>43</v>
@@ -31898,7 +32018,7 @@
         <v>51</v>
       </c>
       <c r="C859" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D859" t="s">
         <v>242</v>
@@ -31916,7 +32036,7 @@
         <v>0.05</v>
       </c>
       <c r="I859" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J859" t="s">
         <v>63</v>
@@ -31933,7 +32053,7 @@
         <v>51</v>
       </c>
       <c r="C860" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D860" t="s">
         <v>244</v>
@@ -31951,7 +32071,7 @@
         <v>0.05</v>
       </c>
       <c r="I860" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J860" t="s">
         <v>127</v>
@@ -31968,7 +32088,7 @@
         <v>51</v>
       </c>
       <c r="C861" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D861" t="s">
         <v>78</v>
@@ -31986,7 +32106,7 @@
         <v>0.05</v>
       </c>
       <c r="I861" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J861" t="s">
         <v>43</v>
@@ -32003,10 +32123,10 @@
         <v>51</v>
       </c>
       <c r="C862" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D862" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E862" s="1" t="s">
         <v>394</v>
@@ -32019,7 +32139,7 @@
         <v>0.1</v>
       </c>
       <c r="I862" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J862" t="s">
         <v>127</v>
@@ -32036,10 +32156,10 @@
         <v>51</v>
       </c>
       <c r="C863" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D863" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E863" s="1" t="s">
         <v>394</v>
@@ -32052,7 +32172,7 @@
         <v>0.1</v>
       </c>
       <c r="I863" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J863" t="s">
         <v>127</v>
@@ -32069,7 +32189,7 @@
         <v>51</v>
       </c>
       <c r="C864" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D864" t="s">
         <v>59</v>
@@ -32087,7 +32207,7 @@
         <v>0.05</v>
       </c>
       <c r="I864" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J864" t="s">
         <v>149</v>
@@ -32104,7 +32224,7 @@
         <v>51</v>
       </c>
       <c r="C865" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D865" t="s">
         <v>161</v>
@@ -32122,7 +32242,7 @@
         <v>0.1</v>
       </c>
       <c r="I865" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J865" t="s">
         <v>43</v>
@@ -32139,7 +32259,7 @@
         <v>51</v>
       </c>
       <c r="C866" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D866" t="s">
         <v>242</v>
@@ -32157,7 +32277,7 @@
         <v>0.1</v>
       </c>
       <c r="I866" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J866" t="s">
         <v>63</v>
@@ -32174,7 +32294,7 @@
         <v>51</v>
       </c>
       <c r="C867" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D867" t="s">
         <v>90</v>
@@ -32192,7 +32312,7 @@
         <v>0.05</v>
       </c>
       <c r="I867" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J867" t="s">
         <v>127</v>
@@ -32209,7 +32329,7 @@
         <v>51</v>
       </c>
       <c r="C868" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D868" t="s">
         <v>227</v>
@@ -32227,7 +32347,7 @@
         <v>0.05</v>
       </c>
       <c r="I868" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J868" t="s">
         <v>60</v>
@@ -32244,7 +32364,7 @@
         <v>51</v>
       </c>
       <c r="C869" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D869" t="s">
         <v>88</v>
@@ -32262,7 +32382,7 @@
         <v>0.05</v>
       </c>
       <c r="I869" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J869" t="s">
         <v>127</v>
@@ -32279,7 +32399,7 @@
         <v>51</v>
       </c>
       <c r="C870" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D870" t="s">
         <v>53</v>
@@ -32297,7 +32417,7 @@
         <v>0.1</v>
       </c>
       <c r="I870" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J870" t="s">
         <v>127</v>
@@ -32314,7 +32434,7 @@
         <v>51</v>
       </c>
       <c r="C871" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D871" t="s">
         <v>192</v>
@@ -32332,7 +32452,7 @@
         <v>55</v>
       </c>
       <c r="I871" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J871" t="s">
         <v>43</v>
@@ -32349,10 +32469,10 @@
         <v>51</v>
       </c>
       <c r="C872" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D872" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E872" s="1" t="s">
         <v>394</v>
@@ -32367,7 +32487,7 @@
         <v>0.05</v>
       </c>
       <c r="I872" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J872" t="s">
         <v>127</v>
@@ -32384,7 +32504,7 @@
         <v>51</v>
       </c>
       <c r="C873" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D873" t="s">
         <v>192</v>
@@ -32402,7 +32522,7 @@
         <v>0.1</v>
       </c>
       <c r="I873" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J873" t="s">
         <v>63</v>
@@ -32419,7 +32539,7 @@
         <v>51</v>
       </c>
       <c r="C874" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D874" t="s">
         <v>148</v>
@@ -32437,7 +32557,7 @@
         <v>0.05</v>
       </c>
       <c r="I874" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J874" t="s">
         <v>43</v>
@@ -32454,7 +32574,7 @@
         <v>51</v>
       </c>
       <c r="C875" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D875" t="s">
         <v>165</v>
@@ -32472,7 +32592,7 @@
         <v>0.05</v>
       </c>
       <c r="I875" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J875" t="s">
         <v>63</v>
@@ -32489,7 +32609,7 @@
         <v>51</v>
       </c>
       <c r="C876" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D876" t="s">
         <v>256</v>
@@ -32507,7 +32627,7 @@
         <v>0.05</v>
       </c>
       <c r="I876" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J876" t="s">
         <v>63</v>
@@ -32524,7 +32644,7 @@
         <v>51</v>
       </c>
       <c r="C877" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D877" t="s">
         <v>53</v>
@@ -32542,7 +32662,7 @@
         <v>0.1</v>
       </c>
       <c r="I877" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J877" t="s">
         <v>63</v>
@@ -32559,10 +32679,10 @@
         <v>51</v>
       </c>
       <c r="C878" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D878" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E878" s="1" t="s">
         <v>394</v>
@@ -32577,7 +32697,7 @@
         <v>0.05</v>
       </c>
       <c r="I878" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J878" t="s">
         <v>63</v>
@@ -32594,7 +32714,7 @@
         <v>51</v>
       </c>
       <c r="C879" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D879" t="s">
         <v>244</v>
@@ -32612,7 +32732,7 @@
         <v>0.1</v>
       </c>
       <c r="I879" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J879" t="s">
         <v>60</v>
@@ -32629,10 +32749,10 @@
         <v>51</v>
       </c>
       <c r="C880" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D880" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E880" s="1" t="s">
         <v>394</v>
@@ -32647,7 +32767,7 @@
         <v>0.05</v>
       </c>
       <c r="I880" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J880" t="s">
         <v>43</v>
@@ -32664,7 +32784,7 @@
         <v>51</v>
       </c>
       <c r="C881" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D881" t="s">
         <v>153</v>
@@ -32682,7 +32802,7 @@
         <v>0.05</v>
       </c>
       <c r="I881" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J881" t="s">
         <v>63</v>
@@ -32699,7 +32819,7 @@
         <v>51</v>
       </c>
       <c r="C882" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D882" t="s">
         <v>59</v>
@@ -32717,7 +32837,7 @@
         <v>0.1</v>
       </c>
       <c r="I882" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J882" t="s">
         <v>63</v>
@@ -32734,7 +32854,7 @@
         <v>51</v>
       </c>
       <c r="C883" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D883" t="s">
         <v>88</v>
@@ -32752,7 +32872,7 @@
         <v>0.1</v>
       </c>
       <c r="I883" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J883" t="s">
         <v>127</v>
@@ -32769,7 +32889,7 @@
         <v>51</v>
       </c>
       <c r="C884" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D884" t="s">
         <v>90</v>
@@ -32787,7 +32907,7 @@
         <v>0.1</v>
       </c>
       <c r="I884" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J884" t="s">
         <v>68</v>
@@ -32804,7 +32924,7 @@
         <v>51</v>
       </c>
       <c r="C885" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D885" t="s">
         <v>163</v>
@@ -32822,7 +32942,7 @@
         <v>55</v>
       </c>
       <c r="I885" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J885" t="s">
         <v>63</v>
@@ -32839,7 +32959,7 @@
         <v>51</v>
       </c>
       <c r="C886" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D886" t="s">
         <v>192</v>
@@ -32857,7 +32977,7 @@
         <v>55</v>
       </c>
       <c r="I886" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J886" t="s">
         <v>127</v>
@@ -32874,7 +32994,7 @@
         <v>51</v>
       </c>
       <c r="C887" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D887" t="s">
         <v>218</v>
@@ -32892,7 +33012,7 @@
         <v>0.02</v>
       </c>
       <c r="I887" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J887" t="s">
         <v>63</v>
@@ -32909,7 +33029,7 @@
         <v>51</v>
       </c>
       <c r="C888" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D888" t="s">
         <v>78</v>
@@ -32927,7 +33047,7 @@
         <v>0.1</v>
       </c>
       <c r="I888" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J888" t="s">
         <v>43</v>
@@ -32944,7 +33064,7 @@
         <v>51</v>
       </c>
       <c r="C889" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D889" t="s">
         <v>40</v>
@@ -32960,10 +33080,10 @@
         <v>0.2</v>
       </c>
       <c r="I889" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J889" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K889" t="s">
         <v>50</v>
@@ -32977,7 +33097,7 @@
         <v>51</v>
       </c>
       <c r="C890" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D890" t="s">
         <v>239</v>
@@ -32995,7 +33115,7 @@
         <v>0.05</v>
       </c>
       <c r="I890" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J890" t="s">
         <v>63</v>
@@ -33012,7 +33132,7 @@
         <v>51</v>
       </c>
       <c r="C891" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D891" t="s">
         <v>74</v>
@@ -33030,7 +33150,7 @@
         <v>0.05</v>
       </c>
       <c r="I891" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J891" t="s">
         <v>43</v>
@@ -33047,7 +33167,7 @@
         <v>51</v>
       </c>
       <c r="C892" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D892" t="s">
         <v>90</v>
@@ -33065,7 +33185,7 @@
         <v>0.05</v>
       </c>
       <c r="I892" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J892" t="s">
         <v>68</v>
@@ -33082,7 +33202,7 @@
         <v>51</v>
       </c>
       <c r="C893" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D893" t="s">
         <v>178</v>
@@ -33100,7 +33220,7 @@
         <v>168</v>
       </c>
       <c r="I893" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J893" t="s">
         <v>63</v>
@@ -33117,7 +33237,7 @@
         <v>51</v>
       </c>
       <c r="C894" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D894" t="s">
         <v>59</v>
@@ -33135,7 +33255,7 @@
         <v>0.05</v>
       </c>
       <c r="I894" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J894" t="s">
         <v>43</v>
@@ -33152,7 +33272,7 @@
         <v>51</v>
       </c>
       <c r="C895" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D895" t="s">
         <v>176</v>
@@ -33170,7 +33290,7 @@
         <v>0.05</v>
       </c>
       <c r="I895" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J895" t="s">
         <v>63</v>
@@ -33187,7 +33307,7 @@
         <v>51</v>
       </c>
       <c r="C896" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D896" t="s">
         <v>40</v>
@@ -33203,7 +33323,7 @@
         <v>0.2</v>
       </c>
       <c r="I896" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J896" t="s">
         <v>68</v>
@@ -33220,7 +33340,7 @@
         <v>51</v>
       </c>
       <c r="C897" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D897" t="s">
         <v>148</v>
@@ -33238,7 +33358,7 @@
         <v>0.1</v>
       </c>
       <c r="I897" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J897" t="s">
         <v>68</v>
@@ -33255,7 +33375,7 @@
         <v>51</v>
       </c>
       <c r="C898" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D898" t="s">
         <v>113</v>
@@ -33273,7 +33393,7 @@
         <v>0.05</v>
       </c>
       <c r="I898" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J898" t="s">
         <v>43</v>
@@ -33290,7 +33410,7 @@
         <v>51</v>
       </c>
       <c r="C899" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D899" t="s">
         <v>178</v>
@@ -33308,7 +33428,7 @@
         <v>55</v>
       </c>
       <c r="I899" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J899" t="s">
         <v>63</v>
@@ -33325,10 +33445,10 @@
         <v>51</v>
       </c>
       <c r="C900" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D900" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E900" s="1" t="s">
         <v>394</v>
@@ -33343,7 +33463,7 @@
         <v>0.01</v>
       </c>
       <c r="I900" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J900" t="s">
         <v>63</v>
@@ -33360,7 +33480,7 @@
         <v>51</v>
       </c>
       <c r="C901" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D901" t="s">
         <v>96</v>
@@ -33378,7 +33498,7 @@
         <v>0.05</v>
       </c>
       <c r="I901" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J901" t="s">
         <v>43</v>
@@ -33395,10 +33515,10 @@
         <v>51</v>
       </c>
       <c r="C902" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D902" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E902" s="1" t="s">
         <v>394</v>
@@ -33413,7 +33533,7 @@
         <v>55</v>
       </c>
       <c r="I902" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J902" t="s">
         <v>63</v>
@@ -33430,7 +33550,7 @@
         <v>51</v>
       </c>
       <c r="C903" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D903" t="s">
         <v>80</v>
@@ -33448,7 +33568,7 @@
         <v>0.05</v>
       </c>
       <c r="I903" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J903" t="s">
         <v>43</v>
@@ -33465,7 +33585,7 @@
         <v>51</v>
       </c>
       <c r="C904" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D904" t="s">
         <v>248</v>
@@ -33483,7 +33603,7 @@
         <v>0.1</v>
       </c>
       <c r="I904" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J904" t="s">
         <v>63</v>
@@ -33500,7 +33620,7 @@
         <v>51</v>
       </c>
       <c r="C905" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D905" t="s">
         <v>94</v>
@@ -33518,7 +33638,7 @@
         <v>0.05</v>
       </c>
       <c r="I905" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J905" t="s">
         <v>63</v>
@@ -33535,7 +33655,7 @@
         <v>51</v>
       </c>
       <c r="C906" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D906" t="s">
         <v>90</v>
@@ -33553,7 +33673,7 @@
         <v>0.05</v>
       </c>
       <c r="I906" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J906" t="s">
         <v>43</v>
@@ -33570,7 +33690,7 @@
         <v>51</v>
       </c>
       <c r="C907" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D907" t="s">
         <v>248</v>
@@ -33588,7 +33708,7 @@
         <v>0.05</v>
       </c>
       <c r="I907" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J907" t="s">
         <v>63</v>
@@ -33605,7 +33725,7 @@
         <v>51</v>
       </c>
       <c r="C908" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D908" t="s">
         <v>40</v>
@@ -33621,10 +33741,10 @@
         <v>0.1</v>
       </c>
       <c r="I908" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J908" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K908" t="s">
         <v>50</v>
@@ -33638,7 +33758,7 @@
         <v>51</v>
       </c>
       <c r="C909" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D909" t="s">
         <v>92</v>
@@ -33656,7 +33776,7 @@
         <v>0.02</v>
       </c>
       <c r="I909" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J909" t="s">
         <v>63</v>
@@ -33673,7 +33793,7 @@
         <v>51</v>
       </c>
       <c r="C910" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D910" t="s">
         <v>161</v>
@@ -33691,7 +33811,7 @@
         <v>0.1</v>
       </c>
       <c r="I910" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J910" t="s">
         <v>63</v>
@@ -33708,7 +33828,7 @@
         <v>51</v>
       </c>
       <c r="C911" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D911" t="s">
         <v>148</v>
@@ -33726,7 +33846,7 @@
         <v>0.1</v>
       </c>
       <c r="I911" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J911" t="s">
         <v>63</v>
@@ -33743,7 +33863,7 @@
         <v>51</v>
       </c>
       <c r="C912" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D912" t="s">
         <v>227</v>
@@ -33761,7 +33881,7 @@
         <v>0.1</v>
       </c>
       <c r="I912" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J912" t="s">
         <v>63</v>
@@ -33778,7 +33898,7 @@
         <v>51</v>
       </c>
       <c r="C913" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D913" t="s">
         <v>248</v>
@@ -33796,7 +33916,7 @@
         <v>0.05</v>
       </c>
       <c r="I913" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J913" t="s">
         <v>43</v>
@@ -33813,10 +33933,10 @@
         <v>51</v>
       </c>
       <c r="C914" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D914" t="s">
         <v>1373</v>
-      </c>
-      <c r="D914" t="s">
-        <v>1374</v>
       </c>
       <c r="E914" s="1" t="s">
         <v>394</v>
@@ -33829,7 +33949,7 @@
         <v>0.1</v>
       </c>
       <c r="I914" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J914" t="s">
         <v>68</v>
@@ -33846,7 +33966,7 @@
         <v>51</v>
       </c>
       <c r="C915" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D915" t="s">
         <v>96</v>
@@ -33864,7 +33984,7 @@
         <v>0.1</v>
       </c>
       <c r="I915" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J915" t="s">
         <v>43</v>
@@ -33881,7 +34001,7 @@
         <v>51</v>
       </c>
       <c r="C916" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D916" t="s">
         <v>102</v>
@@ -33899,7 +34019,7 @@
         <v>0.1</v>
       </c>
       <c r="I916" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J916" t="s">
         <v>63</v>
@@ -33916,7 +34036,7 @@
         <v>51</v>
       </c>
       <c r="C917" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D917" t="s">
         <v>94</v>
@@ -33934,7 +34054,7 @@
         <v>168</v>
       </c>
       <c r="I917" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J917" t="s">
         <v>63</v>
@@ -33951,7 +34071,7 @@
         <v>51</v>
       </c>
       <c r="C918" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D918" t="s">
         <v>94</v>
@@ -33969,7 +34089,7 @@
         <v>55</v>
       </c>
       <c r="I918" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J918" t="s">
         <v>63</v>
@@ -33986,7 +34106,7 @@
         <v>51</v>
       </c>
       <c r="C919" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D919" t="s">
         <v>227</v>
@@ -34004,7 +34124,7 @@
         <v>0.05</v>
       </c>
       <c r="I919" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J919" t="s">
         <v>149</v>
@@ -34021,7 +34141,7 @@
         <v>51</v>
       </c>
       <c r="C920" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D920" t="s">
         <v>25</v>
@@ -34037,10 +34157,10 @@
         <v>0.2</v>
       </c>
       <c r="I920" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J920" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K920" t="s">
         <v>50</v>
@@ -34054,7 +34174,7 @@
         <v>51</v>
       </c>
       <c r="C921" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D921" t="s">
         <v>78</v>
@@ -34072,7 +34192,7 @@
         <v>0.05</v>
       </c>
       <c r="I921" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J921" t="s">
         <v>60</v>
@@ -34089,7 +34209,7 @@
         <v>51</v>
       </c>
       <c r="C922" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D922" t="s">
         <v>96</v>
@@ -34107,7 +34227,7 @@
         <v>0.1</v>
       </c>
       <c r="I922" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J922" t="s">
         <v>63</v>
@@ -34124,7 +34244,7 @@
         <v>51</v>
       </c>
       <c r="C923" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D923" t="s">
         <v>214</v>
@@ -34142,7 +34262,7 @@
         <v>0.1</v>
       </c>
       <c r="I923" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J923" t="s">
         <v>63</v>
@@ -34159,7 +34279,7 @@
         <v>51</v>
       </c>
       <c r="C924" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D924" t="s">
         <v>82</v>
@@ -34177,7 +34297,7 @@
         <v>0.1</v>
       </c>
       <c r="I924" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J924" t="s">
         <v>63</v>
@@ -34194,7 +34314,7 @@
         <v>51</v>
       </c>
       <c r="C925" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D925" t="s">
         <v>244</v>
@@ -34212,7 +34332,7 @@
         <v>0.1</v>
       </c>
       <c r="I925" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J925" t="s">
         <v>127</v>
@@ -34229,7 +34349,7 @@
         <v>51</v>
       </c>
       <c r="C926" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D926" t="s">
         <v>88</v>
@@ -34247,7 +34367,7 @@
         <v>0.1</v>
       </c>
       <c r="I926" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J926" t="s">
         <v>63</v>
@@ -34264,7 +34384,7 @@
         <v>51</v>
       </c>
       <c r="C927" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D927" t="s">
         <v>102</v>
@@ -34282,7 +34402,7 @@
         <v>0.05</v>
       </c>
       <c r="I927" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J927" t="s">
         <v>63</v>
@@ -34299,10 +34419,10 @@
         <v>51</v>
       </c>
       <c r="C928" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D928" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E928" s="1" t="s">
         <v>394</v>
@@ -34317,7 +34437,7 @@
         <v>0.05</v>
       </c>
       <c r="I928" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J928" t="s">
         <v>63</v>
@@ -34334,7 +34454,7 @@
         <v>51</v>
       </c>
       <c r="C929" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D929" t="s">
         <v>90</v>
@@ -34352,7 +34472,7 @@
         <v>0.1</v>
       </c>
       <c r="I929" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J929" t="s">
         <v>43</v>
@@ -34369,7 +34489,7 @@
         <v>51</v>
       </c>
       <c r="C930" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D930" t="s">
         <v>214</v>
@@ -34387,7 +34507,7 @@
         <v>0.05</v>
       </c>
       <c r="I930" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J930" t="s">
         <v>43</v>
@@ -34404,7 +34524,7 @@
         <v>51</v>
       </c>
       <c r="C931" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D931" t="s">
         <v>244</v>
@@ -34422,7 +34542,7 @@
         <v>0.1</v>
       </c>
       <c r="I931" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J931" t="s">
         <v>43</v>
@@ -34439,7 +34559,7 @@
         <v>51</v>
       </c>
       <c r="C932" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="D932" t="s">
         <v>40</v>
@@ -34455,7 +34575,7 @@
         <v>0.1</v>
       </c>
       <c r="I932" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J932" t="s">
         <v>127</v>
@@ -34472,7 +34592,7 @@
         <v>51</v>
       </c>
       <c r="C933" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D933" t="s">
         <v>192</v>
@@ -34490,7 +34610,7 @@
         <v>0.1</v>
       </c>
       <c r="I933" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J933" t="s">
         <v>68</v>
@@ -34507,10 +34627,10 @@
         <v>51</v>
       </c>
       <c r="C934" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D934" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E934" s="1" t="s">
         <v>394</v>
@@ -34525,7 +34645,7 @@
         <v>0.1</v>
       </c>
       <c r="I934" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J934" t="s">
         <v>43</v>
@@ -34542,7 +34662,7 @@
         <v>51</v>
       </c>
       <c r="C935" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D935" t="s">
         <v>244</v>
@@ -34560,7 +34680,7 @@
         <v>0.02</v>
       </c>
       <c r="I935" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J935" t="s">
         <v>60</v>
@@ -34577,7 +34697,7 @@
         <v>51</v>
       </c>
       <c r="C936" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D936" t="s">
         <v>185</v>
@@ -34595,7 +34715,7 @@
         <v>168</v>
       </c>
       <c r="I936" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J936" t="s">
         <v>63</v>
@@ -34612,7 +34732,7 @@
         <v>51</v>
       </c>
       <c r="C937" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D937" t="s">
         <v>326</v>
@@ -34628,10 +34748,10 @@
         <v>0.2</v>
       </c>
       <c r="I937" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J937" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K937" t="s">
         <v>50</v>
@@ -34645,7 +34765,7 @@
         <v>51</v>
       </c>
       <c r="C938" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D938" t="s">
         <v>29</v>
@@ -34661,7 +34781,7 @@
         <v>0.2</v>
       </c>
       <c r="I938" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J938" t="s">
         <v>68</v>
@@ -34678,7 +34798,7 @@
         <v>51</v>
       </c>
       <c r="C939" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D939" t="s">
         <v>139</v>
@@ -34696,7 +34816,7 @@
         <v>0.1</v>
       </c>
       <c r="I939" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J939" t="s">
         <v>63</v>
@@ -34713,7 +34833,7 @@
         <v>51</v>
       </c>
       <c r="C940" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D940" t="s">
         <v>244</v>
@@ -34731,7 +34851,7 @@
         <v>0.05</v>
       </c>
       <c r="I940" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J940" t="s">
         <v>63</v>
@@ -34748,7 +34868,7 @@
         <v>51</v>
       </c>
       <c r="C941" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D941" t="s">
         <v>21</v>
@@ -34764,10 +34884,10 @@
         <v>0.1</v>
       </c>
       <c r="I941" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J941" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K941" t="s">
         <v>50</v>
@@ -34781,7 +34901,7 @@
         <v>51</v>
       </c>
       <c r="C942" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D942" t="s">
         <v>218</v>
@@ -34799,7 +34919,7 @@
         <v>0.05</v>
       </c>
       <c r="I942" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J942" t="s">
         <v>63</v>
@@ -34816,7 +34936,7 @@
         <v>51</v>
       </c>
       <c r="C943" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D943" t="s">
         <v>70</v>
@@ -34834,7 +34954,7 @@
         <v>99</v>
       </c>
       <c r="I943" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J943" t="s">
         <v>63</v>
@@ -34851,7 +34971,7 @@
         <v>51</v>
       </c>
       <c r="C944" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D944" t="s">
         <v>40</v>
@@ -34867,10 +34987,10 @@
         <v>0.1</v>
       </c>
       <c r="I944" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J944" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="K944" t="s">
         <v>50</v>
@@ -34884,7 +35004,7 @@
         <v>51</v>
       </c>
       <c r="C945" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D945" t="s">
         <v>227</v>
@@ -34902,7 +35022,7 @@
         <v>0.05</v>
       </c>
       <c r="I945" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J945" t="s">
         <v>43</v>
@@ -34919,7 +35039,7 @@
         <v>51</v>
       </c>
       <c r="C946" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D946" t="s">
         <v>146</v>
@@ -34937,7 +35057,7 @@
         <v>0.05</v>
       </c>
       <c r="I946" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J946" t="s">
         <v>43</v>
@@ -34954,7 +35074,7 @@
         <v>51</v>
       </c>
       <c r="C947" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D947" t="s">
         <v>67</v>
@@ -34972,7 +35092,7 @@
         <v>55</v>
       </c>
       <c r="I947" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J947" t="s">
         <v>63</v>
@@ -34989,7 +35109,7 @@
         <v>51</v>
       </c>
       <c r="C948" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D948" t="s">
         <v>218</v>
@@ -35007,7 +35127,7 @@
         <v>0.05</v>
       </c>
       <c r="I948" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J948" t="s">
         <v>43</v>
@@ -35024,7 +35144,7 @@
         <v>51</v>
       </c>
       <c r="C949" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D949" t="s">
         <v>148</v>
@@ -35042,7 +35162,7 @@
         <v>0.1</v>
       </c>
       <c r="I949" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J949" t="s">
         <v>43</v>
@@ -35059,7 +35179,7 @@
         <v>51</v>
       </c>
       <c r="C950" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D950" t="s">
         <v>94</v>
@@ -35077,7 +35197,7 @@
         <v>0.02</v>
       </c>
       <c r="I950" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J950" t="s">
         <v>63</v>
@@ -35094,7 +35214,7 @@
         <v>51</v>
       </c>
       <c r="C951" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D951" t="s">
         <v>163</v>
@@ -35112,7 +35232,7 @@
         <v>168</v>
       </c>
       <c r="I951" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J951" t="s">
         <v>63</v>
@@ -35129,7 +35249,7 @@
         <v>51</v>
       </c>
       <c r="C952" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D952" t="s">
         <v>230</v>
@@ -35147,7 +35267,7 @@
         <v>0.02</v>
       </c>
       <c r="I952" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J952" t="s">
         <v>63</v>
@@ -35164,7 +35284,7 @@
         <v>51</v>
       </c>
       <c r="C953" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D953" t="s">
         <v>92</v>
@@ -35182,7 +35302,7 @@
         <v>0.05</v>
       </c>
       <c r="I953" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J953" t="s">
         <v>43</v>
@@ -35199,10 +35319,10 @@
         <v>51</v>
       </c>
       <c r="C954" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D954" t="s">
         <v>1414</v>
-      </c>
-      <c r="D954" t="s">
-        <v>1415</v>
       </c>
       <c r="E954" s="1" t="s">
         <v>394</v>
@@ -35217,7 +35337,7 @@
         <v>55</v>
       </c>
       <c r="I954" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J954" t="s">
         <v>63</v>
@@ -35234,10 +35354,10 @@
         <v>51</v>
       </c>
       <c r="C955" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D955" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E955" s="1" t="s">
         <v>394</v>
@@ -35252,7 +35372,7 @@
         <v>168</v>
       </c>
       <c r="I955" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J955" t="s">
         <v>63</v>
@@ -35269,7 +35389,7 @@
         <v>51</v>
       </c>
       <c r="C956" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D956" t="s">
         <v>82</v>
@@ -35287,7 +35407,7 @@
         <v>0.05</v>
       </c>
       <c r="I956" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J956" t="s">
         <v>60</v>
@@ -35304,7 +35424,7 @@
         <v>51</v>
       </c>
       <c r="C957" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D957" t="s">
         <v>59</v>
@@ -35322,7 +35442,7 @@
         <v>0.1</v>
       </c>
       <c r="I957" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J957" t="s">
         <v>60</v>
@@ -35339,10 +35459,10 @@
         <v>51</v>
       </c>
       <c r="C958" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D958" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E958" s="1" t="s">
         <v>394</v>
@@ -35355,7 +35475,7 @@
         <v>0.1</v>
       </c>
       <c r="I958" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J958" t="s">
         <v>127</v>
@@ -35372,10 +35492,10 @@
         <v>51</v>
       </c>
       <c r="C959" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D959" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E959" s="1" t="s">
         <v>394</v>
@@ -35390,7 +35510,7 @@
         <v>0.1</v>
       </c>
       <c r="I959" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J959" t="s">
         <v>43</v>
@@ -35407,7 +35527,7 @@
         <v>51</v>
       </c>
       <c r="C960" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D960" t="s">
         <v>244</v>
@@ -35425,7 +35545,7 @@
         <v>0.02</v>
       </c>
       <c r="I960" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J960" t="s">
         <v>60</v>
@@ -35442,7 +35562,7 @@
         <v>51</v>
       </c>
       <c r="C961" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D961" t="s">
         <v>185</v>
@@ -35460,7 +35580,7 @@
         <v>168</v>
       </c>
       <c r="I961" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J961" t="s">
         <v>63</v>
@@ -35477,7 +35597,7 @@
         <v>51</v>
       </c>
       <c r="C962" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D962" t="s">
         <v>326</v>
@@ -35493,10 +35613,10 @@
         <v>0.2</v>
       </c>
       <c r="I962" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J962" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K962" t="s">
         <v>50</v>
@@ -35510,7 +35630,7 @@
         <v>51</v>
       </c>
       <c r="C963" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D963" t="s">
         <v>29</v>
@@ -35526,7 +35646,7 @@
         <v>0.2</v>
       </c>
       <c r="I963" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J963" t="s">
         <v>68</v>
@@ -35543,7 +35663,7 @@
         <v>51</v>
       </c>
       <c r="C964" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D964" t="s">
         <v>139</v>
@@ -35561,7 +35681,7 @@
         <v>0.1</v>
       </c>
       <c r="I964" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J964" t="s">
         <v>63</v>
@@ -35578,7 +35698,7 @@
         <v>51</v>
       </c>
       <c r="C965" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D965" t="s">
         <v>244</v>
@@ -35596,7 +35716,7 @@
         <v>0.05</v>
       </c>
       <c r="I965" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J965" t="s">
         <v>63</v>
@@ -35613,7 +35733,7 @@
         <v>51</v>
       </c>
       <c r="C966" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D966" t="s">
         <v>21</v>
@@ -35629,10 +35749,10 @@
         <v>0.1</v>
       </c>
       <c r="I966" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J966" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K966" t="s">
         <v>50</v>
@@ -35646,7 +35766,7 @@
         <v>51</v>
       </c>
       <c r="C967" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D967" t="s">
         <v>218</v>
@@ -35664,7 +35784,7 @@
         <v>0.05</v>
       </c>
       <c r="I967" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J967" t="s">
         <v>63</v>
@@ -35681,7 +35801,7 @@
         <v>51</v>
       </c>
       <c r="C968" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D968" t="s">
         <v>70</v>
@@ -35699,7 +35819,7 @@
         <v>99</v>
       </c>
       <c r="I968" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J968" t="s">
         <v>63</v>
@@ -35716,7 +35836,7 @@
         <v>51</v>
       </c>
       <c r="C969" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D969" t="s">
         <v>40</v>
@@ -35732,10 +35852,10 @@
         <v>0.1</v>
       </c>
       <c r="I969" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J969" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="K969" t="s">
         <v>50</v>
@@ -35749,7 +35869,7 @@
         <v>51</v>
       </c>
       <c r="C970" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D970" t="s">
         <v>227</v>
@@ -35767,7 +35887,7 @@
         <v>0.05</v>
       </c>
       <c r="I970" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J970" t="s">
         <v>43</v>
@@ -35784,7 +35904,7 @@
         <v>51</v>
       </c>
       <c r="C971" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D971" t="s">
         <v>146</v>
@@ -35802,7 +35922,7 @@
         <v>0.05</v>
       </c>
       <c r="I971" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J971" t="s">
         <v>43</v>
@@ -35819,7 +35939,7 @@
         <v>51</v>
       </c>
       <c r="C972" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D972" t="s">
         <v>67</v>
@@ -35837,7 +35957,7 @@
         <v>55</v>
       </c>
       <c r="I972" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J972" t="s">
         <v>63</v>
@@ -35854,7 +35974,7 @@
         <v>51</v>
       </c>
       <c r="C973" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D973" t="s">
         <v>218</v>
@@ -35872,7 +35992,7 @@
         <v>0.05</v>
       </c>
       <c r="I973" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J973" t="s">
         <v>43</v>
@@ -35889,7 +36009,7 @@
         <v>51</v>
       </c>
       <c r="C974" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D974" t="s">
         <v>148</v>
@@ -35907,7 +36027,7 @@
         <v>0.1</v>
       </c>
       <c r="I974" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J974" t="s">
         <v>43</v>
@@ -35924,7 +36044,7 @@
         <v>51</v>
       </c>
       <c r="C975" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D975" t="s">
         <v>94</v>
@@ -35942,7 +36062,7 @@
         <v>0.02</v>
       </c>
       <c r="I975" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J975" t="s">
         <v>63</v>
@@ -35959,7 +36079,7 @@
         <v>51</v>
       </c>
       <c r="C976" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D976" t="s">
         <v>163</v>
@@ -35977,7 +36097,7 @@
         <v>168</v>
       </c>
       <c r="I976" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J976" t="s">
         <v>63</v>
@@ -35994,7 +36114,7 @@
         <v>51</v>
       </c>
       <c r="C977" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D977" t="s">
         <v>230</v>
@@ -36012,7 +36132,7 @@
         <v>0.02</v>
       </c>
       <c r="I977" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J977" t="s">
         <v>63</v>
@@ -36029,7 +36149,7 @@
         <v>51</v>
       </c>
       <c r="C978" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D978" t="s">
         <v>92</v>
@@ -36047,7 +36167,7 @@
         <v>0.05</v>
       </c>
       <c r="I978" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J978" t="s">
         <v>43</v>
@@ -36064,10 +36184,10 @@
         <v>51</v>
       </c>
       <c r="C979" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D979" t="s">
         <v>1414</v>
-      </c>
-      <c r="D979" t="s">
-        <v>1415</v>
       </c>
       <c r="E979" s="1" t="s">
         <v>394</v>
@@ -36082,7 +36202,7 @@
         <v>55</v>
       </c>
       <c r="I979" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J979" t="s">
         <v>63</v>
@@ -36099,10 +36219,10 @@
         <v>51</v>
       </c>
       <c r="C980" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D980" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E980" s="1" t="s">
         <v>394</v>
@@ -36117,7 +36237,7 @@
         <v>168</v>
       </c>
       <c r="I980" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J980" t="s">
         <v>63</v>
@@ -36134,7 +36254,7 @@
         <v>51</v>
       </c>
       <c r="C981" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D981" t="s">
         <v>82</v>
@@ -36152,7 +36272,7 @@
         <v>0.05</v>
       </c>
       <c r="I981" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J981" t="s">
         <v>60</v>
@@ -36169,7 +36289,7 @@
         <v>51</v>
       </c>
       <c r="C982" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D982" t="s">
         <v>59</v>
@@ -36187,7 +36307,7 @@
         <v>0.1</v>
       </c>
       <c r="I982" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J982" t="s">
         <v>60</v>
@@ -36204,10 +36324,10 @@
         <v>51</v>
       </c>
       <c r="C983" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D983" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E983" s="1" t="s">
         <v>394</v>
@@ -36220,7 +36340,7 @@
         <v>0.1</v>
       </c>
       <c r="I983" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J983" t="s">
         <v>127</v>
@@ -36237,7 +36357,7 @@
         <v>51</v>
       </c>
       <c r="C984" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D984" t="s">
         <v>53</v>
@@ -36255,7 +36375,7 @@
         <v>0.1</v>
       </c>
       <c r="I984" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J984" t="s">
         <v>43</v>
@@ -36272,7 +36392,7 @@
         <v>51</v>
       </c>
       <c r="C985" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D985" t="s">
         <v>244</v>
@@ -36290,7 +36410,7 @@
         <v>0.1</v>
       </c>
       <c r="I985" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J985" t="s">
         <v>68</v>
@@ -36307,7 +36427,7 @@
         <v>51</v>
       </c>
       <c r="C986" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D986" t="s">
         <v>78</v>
@@ -36325,7 +36445,7 @@
         <v>0.01</v>
       </c>
       <c r="I986" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J986" t="s">
         <v>63</v>
@@ -36342,7 +36462,7 @@
         <v>51</v>
       </c>
       <c r="C987" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D987" t="s">
         <v>115</v>
@@ -36360,7 +36480,7 @@
         <v>0.01</v>
       </c>
       <c r="I987" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J987" t="s">
         <v>63</v>
@@ -36377,7 +36497,7 @@
         <v>51</v>
       </c>
       <c r="C988" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D988" t="s">
         <v>139</v>
@@ -36395,7 +36515,7 @@
         <v>0.05</v>
       </c>
       <c r="I988" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J988" t="s">
         <v>63</v>
@@ -36412,7 +36532,7 @@
         <v>51</v>
       </c>
       <c r="C989" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D989" t="s">
         <v>170</v>
@@ -36430,7 +36550,7 @@
         <v>55</v>
       </c>
       <c r="I989" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J989" t="s">
         <v>63</v>
@@ -36447,7 +36567,7 @@
         <v>51</v>
       </c>
       <c r="C990" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D990" t="s">
         <v>29</v>
@@ -36463,10 +36583,10 @@
         <v>0.2</v>
       </c>
       <c r="I990" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J990" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K990" t="s">
         <v>50</v>
@@ -36480,7 +36600,7 @@
         <v>51</v>
       </c>
       <c r="C991" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D991" t="s">
         <v>244</v>
@@ -36498,7 +36618,7 @@
         <v>0.05</v>
       </c>
       <c r="I991" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J991" t="s">
         <v>60</v>
@@ -36515,7 +36635,7 @@
         <v>51</v>
       </c>
       <c r="C992" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D992" t="s">
         <v>139</v>
@@ -36533,7 +36653,7 @@
         <v>0.01</v>
       </c>
       <c r="I992" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J992" t="s">
         <v>63</v>
@@ -36550,7 +36670,7 @@
         <v>51</v>
       </c>
       <c r="C993" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D993" t="s">
         <v>155</v>
@@ -36568,7 +36688,7 @@
         <v>0.05</v>
       </c>
       <c r="I993" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J993" t="s">
         <v>63</v>
@@ -36585,7 +36705,7 @@
         <v>51</v>
       </c>
       <c r="C994" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D994" t="s">
         <v>88</v>
@@ -36603,7 +36723,7 @@
         <v>0.05</v>
       </c>
       <c r="I994" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J994" t="s">
         <v>68</v>
@@ -36620,7 +36740,7 @@
         <v>51</v>
       </c>
       <c r="C995" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D995" t="s">
         <v>80</v>
@@ -36638,7 +36758,7 @@
         <v>0.1</v>
       </c>
       <c r="I995" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J995" t="s">
         <v>60</v>
@@ -36655,7 +36775,7 @@
         <v>51</v>
       </c>
       <c r="C996" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D996" t="s">
         <v>40</v>
@@ -36671,7 +36791,7 @@
         <v>0.2</v>
       </c>
       <c r="I996" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J996" t="s">
         <v>127</v>
@@ -36688,7 +36808,7 @@
         <v>51</v>
       </c>
       <c r="C997" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D997" t="s">
         <v>76</v>
@@ -36706,7 +36826,7 @@
         <v>0.05</v>
       </c>
       <c r="I997" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J997" t="s">
         <v>63</v>
@@ -36723,7 +36843,7 @@
         <v>51</v>
       </c>
       <c r="C998" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D998" t="s">
         <v>159</v>
@@ -36741,7 +36861,7 @@
         <v>55</v>
       </c>
       <c r="I998" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J998" t="s">
         <v>63</v>
@@ -36758,10 +36878,10 @@
         <v>51</v>
       </c>
       <c r="C999" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D999" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E999" s="1" t="s">
         <v>394</v>
@@ -36776,7 +36896,7 @@
         <v>0.01</v>
       </c>
       <c r="I999" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J999" t="s">
         <v>63</v>
@@ -36793,7 +36913,7 @@
         <v>51</v>
       </c>
       <c r="C1000" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D1000" t="s">
         <v>25</v>
@@ -36809,7 +36929,7 @@
         <v>0.1</v>
       </c>
       <c r="I1000" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1000" t="s">
         <v>127</v>
@@ -36826,10 +36946,10 @@
         <v>51</v>
       </c>
       <c r="C1001" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D1001" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E1001" s="1" t="s">
         <v>394</v>
@@ -36842,7 +36962,7 @@
         <v>0.1</v>
       </c>
       <c r="I1001" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1001" t="s">
         <v>127</v>
@@ -36859,7 +36979,7 @@
         <v>51</v>
       </c>
       <c r="C1002" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D1002" t="s">
         <v>121</v>
@@ -36875,7 +36995,7 @@
         <v>0.1</v>
       </c>
       <c r="I1002" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1002" t="s">
         <v>68</v>
@@ -36892,10 +37012,10 @@
         <v>51</v>
       </c>
       <c r="C1003" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D1003" t="s">
         <v>1439</v>
-      </c>
-      <c r="D1003" t="s">
-        <v>1440</v>
       </c>
       <c r="E1003" s="1" t="s">
         <v>394</v>
@@ -36908,7 +37028,7 @@
         <v>0.1</v>
       </c>
       <c r="I1003" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1003" t="s">
         <v>68</v>
@@ -36925,7 +37045,7 @@
         <v>51</v>
       </c>
       <c r="C1004" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D1004" t="s">
         <v>161</v>
@@ -36943,7 +37063,7 @@
         <v>0.05</v>
       </c>
       <c r="I1004" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1004" t="s">
         <v>63</v>
@@ -36960,10 +37080,10 @@
         <v>51</v>
       </c>
       <c r="C1005" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D1005" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1005" s="1" t="s">
         <v>394</v>
@@ -36976,7 +37096,7 @@
         <v>0.1</v>
       </c>
       <c r="I1005" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1005" t="s">
         <v>68</v>
@@ -36993,10 +37113,10 @@
         <v>51</v>
       </c>
       <c r="C1006" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D1006" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E1006" s="1" t="s">
         <v>394</v>
@@ -37011,7 +37131,7 @@
         <v>99</v>
       </c>
       <c r="I1006" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1006" t="s">
         <v>63</v>
@@ -37028,7 +37148,7 @@
         <v>51</v>
       </c>
       <c r="C1007" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D1007" t="s">
         <v>227</v>
@@ -37046,7 +37166,7 @@
         <v>0.02</v>
       </c>
       <c r="I1007" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1007" t="s">
         <v>149</v>
@@ -37063,7 +37183,7 @@
         <v>51</v>
       </c>
       <c r="C1008" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D1008" t="s">
         <v>239</v>
@@ -37081,7 +37201,7 @@
         <v>0.02</v>
       </c>
       <c r="I1008" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1008" t="s">
         <v>63</v>
@@ -37098,7 +37218,7 @@
         <v>51</v>
       </c>
       <c r="C1009" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D1009" t="s">
         <v>248</v>
@@ -37116,7 +37236,7 @@
         <v>0.01</v>
       </c>
       <c r="I1009" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1009" t="s">
         <v>63</v>
@@ -37133,7 +37253,7 @@
         <v>51</v>
       </c>
       <c r="C1010" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D1010" t="s">
         <v>161</v>
@@ -37151,7 +37271,7 @@
         <v>0.05</v>
       </c>
       <c r="I1010" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1010" t="s">
         <v>43</v>
@@ -37168,7 +37288,7 @@
         <v>51</v>
       </c>
       <c r="C1011" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D1011" t="s">
         <v>139</v>
@@ -37186,7 +37306,7 @@
         <v>0.1</v>
       </c>
       <c r="I1011" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1011" t="s">
         <v>68</v>
@@ -37203,7 +37323,7 @@
         <v>51</v>
       </c>
       <c r="C1012" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D1012" t="s">
         <v>53</v>
@@ -37221,7 +37341,7 @@
         <v>0.05</v>
       </c>
       <c r="I1012" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1012" t="s">
         <v>127</v>
@@ -37238,7 +37358,7 @@
         <v>51</v>
       </c>
       <c r="C1013" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D1013" t="s">
         <v>80</v>
@@ -37256,7 +37376,7 @@
         <v>0.02</v>
       </c>
       <c r="I1013" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1013" t="s">
         <v>63</v>
@@ -37273,7 +37393,7 @@
         <v>51</v>
       </c>
       <c r="C1014" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D1014" t="s">
         <v>25</v>
@@ -37289,10 +37409,10 @@
         <v>0.1</v>
       </c>
       <c r="I1014" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1014" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K1014" t="s">
         <v>50</v>
@@ -37306,7 +37426,7 @@
         <v>51</v>
       </c>
       <c r="C1015" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D1015" t="s">
         <v>65</v>
@@ -37324,7 +37444,7 @@
         <v>0.05</v>
       </c>
       <c r="I1015" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1015" t="s">
         <v>43</v>
@@ -37341,7 +37461,7 @@
         <v>51</v>
       </c>
       <c r="C1016" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D1016" t="s">
         <v>115</v>
@@ -37359,7 +37479,7 @@
         <v>0.05</v>
       </c>
       <c r="I1016" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1016" t="s">
         <v>63</v>
@@ -37376,7 +37496,7 @@
         <v>51</v>
       </c>
       <c r="C1017" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D1017" t="s">
         <v>153</v>
@@ -37394,7 +37514,7 @@
         <v>0.01</v>
       </c>
       <c r="I1017" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1017" t="s">
         <v>63</v>
@@ -37411,10 +37531,10 @@
         <v>51</v>
       </c>
       <c r="C1018" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D1018" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E1018" s="1" t="s">
         <v>394</v>
@@ -37429,7 +37549,7 @@
         <v>0.05</v>
       </c>
       <c r="I1018" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1018" t="s">
         <v>63</v>
@@ -37446,10 +37566,10 @@
         <v>51</v>
       </c>
       <c r="C1019" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D1019" t="s">
         <v>1456</v>
-      </c>
-      <c r="D1019" t="s">
-        <v>1457</v>
       </c>
       <c r="E1019" s="1" t="s">
         <v>394</v>
@@ -37462,7 +37582,7 @@
         <v>0.1</v>
       </c>
       <c r="I1019" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1019" t="s">
         <v>68</v>
@@ -37479,7 +37599,7 @@
         <v>51</v>
       </c>
       <c r="C1020" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D1020" t="s">
         <v>155</v>
@@ -37497,7 +37617,7 @@
         <v>99</v>
       </c>
       <c r="I1020" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1020" t="s">
         <v>63</v>
@@ -37514,10 +37634,10 @@
         <v>51</v>
       </c>
       <c r="C1021" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D1021" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1021" s="1" t="s">
         <v>394</v>
@@ -37532,7 +37652,7 @@
         <v>99</v>
       </c>
       <c r="I1021" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1021" t="s">
         <v>63</v>
@@ -37549,7 +37669,7 @@
         <v>51</v>
       </c>
       <c r="C1022" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D1022" t="s">
         <v>105</v>
@@ -37567,7 +37687,7 @@
         <v>0.05</v>
       </c>
       <c r="I1022" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1022" t="s">
         <v>63</v>
@@ -37584,7 +37704,7 @@
         <v>51</v>
       </c>
       <c r="C1023" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D1023" t="s">
         <v>199</v>
@@ -37602,7 +37722,7 @@
         <v>99</v>
       </c>
       <c r="I1023" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1023" t="s">
         <v>63</v>
@@ -37619,7 +37739,7 @@
         <v>51</v>
       </c>
       <c r="C1024" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D1024" t="s">
         <v>29</v>
@@ -37635,10 +37755,10 @@
         <v>0.1</v>
       </c>
       <c r="I1024" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1024" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="K1024" t="s">
         <v>50</v>
@@ -37652,10 +37772,10 @@
         <v>51</v>
       </c>
       <c r="C1025" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D1025" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E1025" s="1" t="s">
         <v>394</v>
@@ -37670,7 +37790,7 @@
         <v>99</v>
       </c>
       <c r="I1025" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1025" t="s">
         <v>43</v>
@@ -37687,7 +37807,7 @@
         <v>51</v>
       </c>
       <c r="C1026" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D1026" t="s">
         <v>59</v>
@@ -37705,7 +37825,7 @@
         <v>0.05</v>
       </c>
       <c r="I1026" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1026" t="s">
         <v>127</v>
@@ -37722,7 +37842,7 @@
         <v>51</v>
       </c>
       <c r="C1027" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D1027" t="s">
         <v>67</v>
@@ -37740,7 +37860,7 @@
         <v>0.1</v>
       </c>
       <c r="I1027" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1027" t="s">
         <v>127</v>
@@ -37757,7 +37877,7 @@
         <v>51</v>
       </c>
       <c r="C1028" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D1028" t="s">
         <v>90</v>
@@ -37775,7 +37895,7 @@
         <v>0.1</v>
       </c>
       <c r="I1028" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1028" t="s">
         <v>127</v>
@@ -37792,10 +37912,10 @@
         <v>51</v>
       </c>
       <c r="C1029" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D1029" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E1029" s="1" t="s">
         <v>394</v>
@@ -37810,7 +37930,7 @@
         <v>0.1</v>
       </c>
       <c r="I1029" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1029" t="s">
         <v>43</v>
@@ -37827,7 +37947,7 @@
         <v>51</v>
       </c>
       <c r="C1030" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D1030" t="s">
         <v>90</v>
@@ -37845,7 +37965,7 @@
         <v>55</v>
       </c>
       <c r="I1030" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1030" t="s">
         <v>63</v>
@@ -37862,7 +37982,7 @@
         <v>51</v>
       </c>
       <c r="C1031" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D1031" t="s">
         <v>206</v>
@@ -37880,7 +38000,7 @@
         <v>0.05</v>
       </c>
       <c r="I1031" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1031" t="s">
         <v>63</v>
@@ -37897,10 +38017,10 @@
         <v>51</v>
       </c>
       <c r="C1032" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D1032" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E1032" s="1" t="s">
         <v>394</v>
@@ -37913,7 +38033,7 @@
         <v>0.1</v>
       </c>
       <c r="I1032" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1032" t="s">
         <v>68</v>
@@ -37930,7 +38050,7 @@
         <v>51</v>
       </c>
       <c r="C1033" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D1033" t="s">
         <v>53</v>
@@ -37948,7 +38068,7 @@
         <v>168</v>
       </c>
       <c r="I1033" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1033" t="s">
         <v>127</v>
@@ -37965,7 +38085,7 @@
         <v>51</v>
       </c>
       <c r="C1034" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D1034" t="s">
         <v>53</v>
@@ -37983,7 +38103,7 @@
         <v>0.05</v>
       </c>
       <c r="I1034" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1034" t="s">
         <v>63</v>
@@ -38000,7 +38120,7 @@
         <v>51</v>
       </c>
       <c r="C1035" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D1035" t="s">
         <v>92</v>
@@ -38018,7 +38138,7 @@
         <v>0.1</v>
       </c>
       <c r="I1035" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1035" t="s">
         <v>68</v>
@@ -38035,7 +38155,7 @@
         <v>51</v>
       </c>
       <c r="C1036" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D1036" t="s">
         <v>88</v>
@@ -38053,7 +38173,7 @@
         <v>0.1</v>
       </c>
       <c r="I1036" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1036" t="s">
         <v>43</v>
@@ -38070,7 +38190,7 @@
         <v>51</v>
       </c>
       <c r="C1037" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D1037" t="s">
         <v>178</v>
@@ -38088,7 +38208,7 @@
         <v>0.05</v>
       </c>
       <c r="I1037" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1037" t="s">
         <v>63</v>
@@ -38105,7 +38225,7 @@
         <v>51</v>
       </c>
       <c r="C1038" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D1038" t="s">
         <v>59</v>
@@ -38123,7 +38243,7 @@
         <v>0.01</v>
       </c>
       <c r="I1038" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1038" t="s">
         <v>63</v>
@@ -38140,7 +38260,7 @@
         <v>51</v>
       </c>
       <c r="C1039" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D1039" t="s">
         <v>96</v>
@@ -38158,7 +38278,7 @@
         <v>0.02</v>
       </c>
       <c r="I1039" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1039" t="s">
         <v>63</v>
@@ -38175,10 +38295,10 @@
         <v>51</v>
       </c>
       <c r="C1040" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D1040" t="s">
         <v>1478</v>
-      </c>
-      <c r="D1040" t="s">
-        <v>1479</v>
       </c>
       <c r="E1040" s="1" t="s">
         <v>394</v>
@@ -38191,7 +38311,7 @@
         <v>0.1</v>
       </c>
       <c r="I1040" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1040" t="s">
         <v>68</v>
@@ -38208,7 +38328,7 @@
         <v>51</v>
       </c>
       <c r="C1041" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D1041" t="s">
         <v>244</v>
@@ -38226,7 +38346,7 @@
         <v>0.02</v>
       </c>
       <c r="I1041" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1041" t="s">
         <v>63</v>
@@ -38243,7 +38363,7 @@
         <v>51</v>
       </c>
       <c r="C1042" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D1042" t="s">
         <v>123</v>
@@ -38259,7 +38379,7 @@
         <v>0.1</v>
       </c>
       <c r="I1042" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1042" t="s">
         <v>68</v>
@@ -38276,7 +38396,7 @@
         <v>51</v>
       </c>
       <c r="C1043" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D1043" t="s">
         <v>33</v>
@@ -38292,10 +38412,10 @@
         <v>0.2</v>
       </c>
       <c r="I1043" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1043" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K1043" t="s">
         <v>50</v>
@@ -38309,7 +38429,7 @@
         <v>51</v>
       </c>
       <c r="C1044" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D1044" t="s">
         <v>244</v>
@@ -38327,7 +38447,7 @@
         <v>0.01</v>
       </c>
       <c r="I1044" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1044" t="s">
         <v>60</v>
@@ -38344,7 +38464,7 @@
         <v>51</v>
       </c>
       <c r="C1045" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D1045" t="s">
         <v>256</v>
@@ -38362,7 +38482,7 @@
         <v>0.01</v>
       </c>
       <c r="I1045" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1045" t="s">
         <v>63</v>
@@ -38379,7 +38499,7 @@
         <v>51</v>
       </c>
       <c r="C1046" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D1046" t="s">
         <v>139</v>
@@ -38397,7 +38517,7 @@
         <v>0.05</v>
       </c>
       <c r="I1046" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1046" t="s">
         <v>60</v>
@@ -38414,7 +38534,7 @@
         <v>51</v>
       </c>
       <c r="C1047" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D1047" t="s">
         <v>88</v>
@@ -38432,7 +38552,7 @@
         <v>0.05</v>
       </c>
       <c r="I1047" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1047" t="s">
         <v>43</v>
@@ -38449,10 +38569,10 @@
         <v>51</v>
       </c>
       <c r="C1048" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D1048" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E1048" s="1" t="s">
         <v>394</v>
@@ -38467,7 +38587,7 @@
         <v>0.05</v>
       </c>
       <c r="I1048" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1048" t="s">
         <v>43</v>
@@ -38484,7 +38604,7 @@
         <v>51</v>
       </c>
       <c r="C1049" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D1049" t="s">
         <v>80</v>
@@ -38502,7 +38622,7 @@
         <v>0.05</v>
       </c>
       <c r="I1049" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1049" t="s">
         <v>63</v>
@@ -38519,7 +38639,7 @@
         <v>51</v>
       </c>
       <c r="C1050" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D1050" t="s">
         <v>88</v>
@@ -38537,7 +38657,7 @@
         <v>0.1</v>
       </c>
       <c r="I1050" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1050" t="s">
         <v>68</v>
@@ -38554,7 +38674,7 @@
         <v>51</v>
       </c>
       <c r="C1051" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D1051" t="s">
         <v>25</v>
@@ -38570,7 +38690,7 @@
         <v>0.2</v>
       </c>
       <c r="I1051" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1051" t="s">
         <v>68</v>
@@ -38587,7 +38707,7 @@
         <v>51</v>
       </c>
       <c r="C1052" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D1052" t="s">
         <v>25</v>
@@ -38603,7 +38723,7 @@
         <v>0.1</v>
       </c>
       <c r="I1052" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1052" t="s">
         <v>68</v>
@@ -38620,7 +38740,7 @@
         <v>51</v>
       </c>
       <c r="C1053" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D1053" t="s">
         <v>242</v>
@@ -38638,7 +38758,7 @@
         <v>0.05</v>
       </c>
       <c r="I1053" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1053" t="s">
         <v>43</v>
@@ -38655,7 +38775,7 @@
         <v>51</v>
       </c>
       <c r="C1054" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D1054" t="s">
         <v>139</v>
@@ -38673,7 +38793,7 @@
         <v>0.05</v>
       </c>
       <c r="I1054" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1054" t="s">
         <v>68</v>
@@ -38690,7 +38810,7 @@
         <v>51</v>
       </c>
       <c r="C1055" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D1055" t="s">
         <v>256</v>
@@ -38708,7 +38828,7 @@
         <v>0.05</v>
       </c>
       <c r="I1055" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1055" t="s">
         <v>43</v>
@@ -38725,10 +38845,10 @@
         <v>51</v>
       </c>
       <c r="C1056" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D1056" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E1056" s="1" t="s">
         <v>394</v>
@@ -38743,7 +38863,7 @@
         <v>99</v>
       </c>
       <c r="I1056" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1056" t="s">
         <v>63</v>
@@ -38760,7 +38880,7 @@
         <v>51</v>
       </c>
       <c r="C1057" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D1057" t="s">
         <v>192</v>
@@ -38778,7 +38898,7 @@
         <v>99</v>
       </c>
       <c r="I1057" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1057" t="s">
         <v>63</v>
@@ -38795,10 +38915,10 @@
         <v>51</v>
       </c>
       <c r="C1058" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D1058" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E1058" s="1" t="s">
         <v>394</v>
@@ -38813,7 +38933,7 @@
         <v>99</v>
       </c>
       <c r="I1058" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1058" t="s">
         <v>63</v>
@@ -38830,7 +38950,7 @@
         <v>51</v>
       </c>
       <c r="C1059" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D1059" t="s">
         <v>253</v>
@@ -38848,7 +38968,7 @@
         <v>0.01</v>
       </c>
       <c r="I1059" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1059" t="s">
         <v>188</v>
@@ -38865,7 +38985,7 @@
         <v>51</v>
       </c>
       <c r="C1060" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D1060" t="s">
         <v>90</v>
@@ -38883,7 +39003,7 @@
         <v>0.01</v>
       </c>
       <c r="I1060" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1060" t="s">
         <v>63</v>
@@ -38900,7 +39020,7 @@
         <v>51</v>
       </c>
       <c r="C1061" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D1061" t="s">
         <v>40</v>
@@ -38916,7 +39036,7 @@
         <v>0.1</v>
       </c>
       <c r="I1061" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1061" t="s">
         <v>68</v>
@@ -38933,7 +39053,7 @@
         <v>51</v>
       </c>
       <c r="C1062" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D1062" t="s">
         <v>88</v>
@@ -38951,7 +39071,7 @@
         <v>0.01</v>
       </c>
       <c r="I1062" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1062" t="s">
         <v>63</v>
@@ -38968,7 +39088,7 @@
         <v>51</v>
       </c>
       <c r="C1063" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D1063" t="s">
         <v>53</v>
@@ -38986,7 +39106,7 @@
         <v>0.02</v>
       </c>
       <c r="I1063" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1063" t="s">
         <v>63</v>
@@ -39003,10 +39123,10 @@
         <v>51</v>
       </c>
       <c r="C1064" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D1064" t="s">
         <v>1503</v>
-      </c>
-      <c r="D1064" t="s">
-        <v>1504</v>
       </c>
       <c r="E1064" s="1" t="s">
         <v>394</v>
@@ -39021,7 +39141,7 @@
         <v>0.05</v>
       </c>
       <c r="I1064" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1064" t="s">
         <v>63</v>
@@ -39038,7 +39158,7 @@
         <v>51</v>
       </c>
       <c r="C1065" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D1065" t="s">
         <v>146</v>
@@ -39056,7 +39176,7 @@
         <v>0.01</v>
       </c>
       <c r="I1065" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1065" t="s">
         <v>127</v>
@@ -39073,7 +39193,7 @@
         <v>51</v>
       </c>
       <c r="C1066" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D1066" t="s">
         <v>227</v>
@@ -39091,7 +39211,7 @@
         <v>0.05</v>
       </c>
       <c r="I1066" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1066" t="s">
         <v>127</v>
@@ -39108,7 +39228,7 @@
         <v>51</v>
       </c>
       <c r="C1067" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D1067" t="s">
         <v>102</v>
@@ -39126,7 +39246,7 @@
         <v>168</v>
       </c>
       <c r="I1067" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1067" t="s">
         <v>63</v>
@@ -39143,10 +39263,10 @@
         <v>51</v>
       </c>
       <c r="C1068" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D1068" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E1068" s="1" t="s">
         <v>394</v>
@@ -39161,7 +39281,7 @@
         <v>168</v>
       </c>
       <c r="I1068" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1068" t="s">
         <v>63</v>
@@ -39178,7 +39298,7 @@
         <v>51</v>
       </c>
       <c r="C1069" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D1069" t="s">
         <v>94</v>
@@ -39196,7 +39316,7 @@
         <v>0.02</v>
       </c>
       <c r="I1069" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1069" t="s">
         <v>43</v>
@@ -39213,10 +39333,10 @@
         <v>51</v>
       </c>
       <c r="C1070" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D1070" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E1070" s="1" t="s">
         <v>394</v>
@@ -39231,7 +39351,7 @@
         <v>0.02</v>
       </c>
       <c r="I1070" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1070" t="s">
         <v>63</v>
@@ -39248,7 +39368,7 @@
         <v>51</v>
       </c>
       <c r="C1071" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D1071" t="s">
         <v>146</v>
@@ -39266,7 +39386,7 @@
         <v>0.1</v>
       </c>
       <c r="I1071" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1071" t="s">
         <v>43</v>
@@ -39283,7 +39403,7 @@
         <v>51</v>
       </c>
       <c r="C1072" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D1072" t="s">
         <v>236</v>
@@ -39301,7 +39421,7 @@
         <v>0.05</v>
       </c>
       <c r="I1072" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1072" t="s">
         <v>188</v>
@@ -39318,7 +39438,7 @@
         <v>51</v>
       </c>
       <c r="C1073" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D1073" t="s">
         <v>242</v>
@@ -39336,7 +39456,7 @@
         <v>0.01</v>
       </c>
       <c r="I1073" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1073" t="s">
         <v>63</v>
@@ -39353,7 +39473,7 @@
         <v>51</v>
       </c>
       <c r="C1074" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D1074" t="s">
         <v>59</v>
@@ -39371,7 +39491,7 @@
         <v>0.02</v>
       </c>
       <c r="I1074" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1074" t="s">
         <v>63</v>
@@ -39388,7 +39508,7 @@
         <v>51</v>
       </c>
       <c r="C1075" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D1075" t="s">
         <v>109</v>
@@ -39406,7 +39526,7 @@
         <v>0.02</v>
       </c>
       <c r="I1075" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1075" t="s">
         <v>43</v>
@@ -39423,7 +39543,7 @@
         <v>51</v>
       </c>
       <c r="C1076" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D1076" t="s">
         <v>102</v>
@@ -39441,7 +39561,7 @@
         <v>0.1</v>
       </c>
       <c r="I1076" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1076" t="s">
         <v>43</v>
@@ -39458,10 +39578,10 @@
         <v>51</v>
       </c>
       <c r="C1077" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D1077" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E1077" s="1" t="s">
         <v>394</v>
@@ -39476,7 +39596,7 @@
         <v>0.1</v>
       </c>
       <c r="I1077" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1077" t="s">
         <v>63</v>
@@ -39493,10 +39613,10 @@
         <v>51</v>
       </c>
       <c r="C1078" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D1078" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1078" s="1" t="s">
         <v>394</v>
@@ -39511,7 +39631,7 @@
         <v>55</v>
       </c>
       <c r="I1078" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1078" t="s">
         <v>127</v>
@@ -39528,7 +39648,7 @@
         <v>51</v>
       </c>
       <c r="C1079" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D1079" t="s">
         <v>174</v>
@@ -39546,7 +39666,7 @@
         <v>55</v>
       </c>
       <c r="I1079" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1079" t="s">
         <v>43</v>
@@ -39563,7 +39683,7 @@
         <v>51</v>
       </c>
       <c r="C1080" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D1080" t="s">
         <v>53</v>
@@ -39581,7 +39701,7 @@
         <v>0.1</v>
       </c>
       <c r="I1080" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1080" t="s">
         <v>68</v>
@@ -39598,7 +39718,7 @@
         <v>51</v>
       </c>
       <c r="C1081" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D1081" t="s">
         <v>148</v>
@@ -39616,7 +39736,7 @@
         <v>0.01</v>
       </c>
       <c r="I1081" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1081" t="s">
         <v>63</v>
@@ -39633,7 +39753,7 @@
         <v>51</v>
       </c>
       <c r="C1082" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D1082" t="s">
         <v>244</v>
@@ -39651,7 +39771,7 @@
         <v>0.01</v>
       </c>
       <c r="I1082" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1082" t="s">
         <v>63</v>
@@ -39668,7 +39788,7 @@
         <v>51</v>
       </c>
       <c r="C1083" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D1083" t="s">
         <v>113</v>
@@ -39686,7 +39806,7 @@
         <v>0.05</v>
       </c>
       <c r="I1083" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1083" t="s">
         <v>63</v>
@@ -39703,7 +39823,7 @@
         <v>51</v>
       </c>
       <c r="C1084" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D1084" t="s">
         <v>214</v>
@@ -39721,7 +39841,7 @@
         <v>0.1</v>
       </c>
       <c r="I1084" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1084" t="s">
         <v>60</v>
@@ -39738,10 +39858,10 @@
         <v>51</v>
       </c>
       <c r="C1085" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D1085" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E1085" s="1" t="s">
         <v>394</v>
@@ -39756,7 +39876,7 @@
         <v>168</v>
       </c>
       <c r="I1085" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1085" t="s">
         <v>63</v>
@@ -39773,7 +39893,7 @@
         <v>51</v>
       </c>
       <c r="C1086" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="D1086" t="s">
         <v>208</v>
@@ -39791,7 +39911,7 @@
         <v>55</v>
       </c>
       <c r="I1086" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1086" t="s">
         <v>63</v>
@@ -39808,10 +39928,10 @@
         <v>51</v>
       </c>
       <c r="C1087" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D1087" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E1087" s="1" t="s">
         <v>394</v>
@@ -39826,7 +39946,7 @@
         <v>0.02</v>
       </c>
       <c r="I1087" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1087" t="s">
         <v>63</v>
@@ -39843,7 +39963,7 @@
         <v>51</v>
       </c>
       <c r="C1088" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D1088" t="s">
         <v>115</v>
@@ -39861,7 +39981,7 @@
         <v>0.02</v>
       </c>
       <c r="I1088" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1088" t="s">
         <v>63</v>
@@ -39878,7 +39998,7 @@
         <v>51</v>
       </c>
       <c r="C1089" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D1089" t="s">
         <v>155</v>
@@ -39896,7 +40016,7 @@
         <v>55</v>
       </c>
       <c r="I1089" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1089" t="s">
         <v>43</v>
@@ -39913,10 +40033,10 @@
         <v>51</v>
       </c>
       <c r="C1090" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D1090" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E1090" s="1" t="s">
         <v>394</v>
@@ -39931,7 +40051,7 @@
         <v>168</v>
       </c>
       <c r="I1090" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1090" t="s">
         <v>63</v>
@@ -39948,7 +40068,7 @@
         <v>51</v>
       </c>
       <c r="C1091" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D1091" t="s">
         <v>113</v>
@@ -39966,7 +40086,7 @@
         <v>0.02</v>
       </c>
       <c r="I1091" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1091" t="s">
         <v>63</v>
@@ -39983,7 +40103,7 @@
         <v>51</v>
       </c>
       <c r="C1092" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D1092" t="s">
         <v>178</v>
@@ -40001,7 +40121,7 @@
         <v>55</v>
       </c>
       <c r="I1092" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1092" t="s">
         <v>43</v>
@@ -40018,7 +40138,7 @@
         <v>51</v>
       </c>
       <c r="C1093" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D1093" t="s">
         <v>185</v>
@@ -40036,7 +40156,7 @@
         <v>55</v>
       </c>
       <c r="I1093" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1093" t="s">
         <v>43</v>
@@ -40053,10 +40173,10 @@
         <v>51</v>
       </c>
       <c r="C1094" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D1094" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E1094" s="1" t="s">
         <v>394</v>
@@ -40071,7 +40191,7 @@
         <v>168</v>
       </c>
       <c r="I1094" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1094" t="s">
         <v>63</v>
@@ -40088,7 +40208,7 @@
         <v>51</v>
       </c>
       <c r="C1095" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D1095" t="s">
         <v>153</v>
@@ -40106,7 +40226,7 @@
         <v>0.1</v>
       </c>
       <c r="I1095" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1095" t="s">
         <v>63</v>
@@ -40123,7 +40243,7 @@
         <v>51</v>
       </c>
       <c r="C1096" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D1096" t="s">
         <v>178</v>
@@ -40141,7 +40261,7 @@
         <v>168</v>
       </c>
       <c r="I1096" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1096" t="s">
         <v>43</v>
@@ -40158,10 +40278,10 @@
         <v>51</v>
       </c>
       <c r="C1097" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D1097" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E1097" s="1" t="s">
         <v>394</v>
@@ -40174,10 +40294,10 @@
         <v>0.1</v>
       </c>
       <c r="I1097" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1097" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K1097" t="s">
         <v>50</v>
@@ -40191,7 +40311,7 @@
         <v>51</v>
       </c>
       <c r="C1098" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D1098" t="s">
         <v>174</v>
@@ -40209,7 +40329,7 @@
         <v>99</v>
       </c>
       <c r="I1098" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1098" t="s">
         <v>63</v>
@@ -40226,7 +40346,7 @@
         <v>51</v>
       </c>
       <c r="C1099" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D1099" t="s">
         <v>214</v>
@@ -40244,7 +40364,7 @@
         <v>0.05</v>
       </c>
       <c r="I1099" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1099" t="s">
         <v>60</v>
@@ -40261,7 +40381,7 @@
         <v>51</v>
       </c>
       <c r="C1100" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D1100" t="s">
         <v>244</v>
@@ -40279,7 +40399,7 @@
         <v>0.05</v>
       </c>
       <c r="I1100" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1100" t="s">
         <v>149</v>
@@ -40296,7 +40416,7 @@
         <v>51</v>
       </c>
       <c r="C1101" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D1101" t="s">
         <v>82</v>
@@ -40314,7 +40434,7 @@
         <v>0.01</v>
       </c>
       <c r="I1101" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1101" t="s">
         <v>63</v>
@@ -40331,7 +40451,7 @@
         <v>51</v>
       </c>
       <c r="C1102" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D1102" t="s">
         <v>82</v>
@@ -40349,7 +40469,7 @@
         <v>0.05</v>
       </c>
       <c r="I1102" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1102" t="s">
         <v>43</v>
@@ -40366,7 +40486,7 @@
         <v>51</v>
       </c>
       <c r="C1103" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D1103" t="s">
         <v>53</v>
@@ -40384,7 +40504,7 @@
         <v>168</v>
       </c>
       <c r="I1103" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1103" t="s">
         <v>43</v>
@@ -40401,7 +40521,7 @@
         <v>51</v>
       </c>
       <c r="C1104" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D1104" t="s">
         <v>88</v>
@@ -40419,7 +40539,7 @@
         <v>0.02</v>
       </c>
       <c r="I1104" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1104" t="s">
         <v>63</v>
@@ -40436,10 +40556,10 @@
         <v>51</v>
       </c>
       <c r="C1105" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D1105" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E1105" s="1" t="s">
         <v>394</v>
@@ -40454,7 +40574,7 @@
         <v>0.01</v>
       </c>
       <c r="I1105" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1105" t="s">
         <v>63</v>
@@ -40471,7 +40591,7 @@
         <v>51</v>
       </c>
       <c r="C1106" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D1106" t="s">
         <v>121</v>
@@ -40487,10 +40607,10 @@
         <v>0.1</v>
       </c>
       <c r="I1106" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1106" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K1106" t="s">
         <v>50</v>
@@ -40504,7 +40624,7 @@
         <v>51</v>
       </c>
       <c r="C1107" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D1107" t="s">
         <v>176</v>
@@ -40522,7 +40642,7 @@
         <v>0.05</v>
       </c>
       <c r="I1107" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1107" t="s">
         <v>43</v>
@@ -40539,7 +40659,7 @@
         <v>51</v>
       </c>
       <c r="C1108" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D1108" t="s">
         <v>148</v>
@@ -40557,7 +40677,7 @@
         <v>0.05</v>
       </c>
       <c r="I1108" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1108" t="s">
         <v>63</v>
@@ -40574,7 +40694,7 @@
         <v>51</v>
       </c>
       <c r="C1109" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D1109" t="s">
         <v>148</v>
@@ -40592,7 +40712,7 @@
         <v>0.01</v>
       </c>
       <c r="I1109" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1109" t="s">
         <v>43</v>
@@ -40609,7 +40729,7 @@
         <v>51</v>
       </c>
       <c r="C1110" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D1110" t="s">
         <v>102</v>
@@ -40627,7 +40747,7 @@
         <v>0.01</v>
       </c>
       <c r="I1110" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1110" t="s">
         <v>63</v>
@@ -40644,10 +40764,10 @@
         <v>51</v>
       </c>
       <c r="C1111" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D1111" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1111" s="1" t="s">
         <v>394</v>
@@ -40662,7 +40782,7 @@
         <v>168</v>
       </c>
       <c r="I1111" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1111" t="s">
         <v>63</v>
@@ -40679,7 +40799,7 @@
         <v>51</v>
       </c>
       <c r="C1112" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D1112" t="s">
         <v>153</v>
@@ -40697,7 +40817,7 @@
         <v>0.1</v>
       </c>
       <c r="I1112" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1112" t="s">
         <v>68</v>
@@ -40714,7 +40834,7 @@
         <v>51</v>
       </c>
       <c r="C1113" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D1113" t="s">
         <v>96</v>
@@ -40732,7 +40852,7 @@
         <v>0.1</v>
       </c>
       <c r="I1113" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1113" t="s">
         <v>68</v>
@@ -40749,7 +40869,7 @@
         <v>51</v>
       </c>
       <c r="C1114" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D1114" t="s">
         <v>239</v>
@@ -40767,7 +40887,7 @@
         <v>0.02</v>
       </c>
       <c r="I1114" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1114" t="s">
         <v>188</v>
@@ -40784,10 +40904,10 @@
         <v>51</v>
       </c>
       <c r="C1115" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D1115" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E1115" s="1" t="s">
         <v>394</v>
@@ -40802,7 +40922,7 @@
         <v>0.1</v>
       </c>
       <c r="I1115" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1115" t="s">
         <v>43</v>
@@ -40819,7 +40939,7 @@
         <v>51</v>
       </c>
       <c r="C1116" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D1116" t="s">
         <v>96</v>
@@ -40837,7 +40957,7 @@
         <v>0.05</v>
       </c>
       <c r="I1116" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1116" t="s">
         <v>68</v>
@@ -40854,7 +40974,7 @@
         <v>51</v>
       </c>
       <c r="C1117" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D1117" t="s">
         <v>192</v>
@@ -40872,7 +40992,7 @@
         <v>168</v>
       </c>
       <c r="I1117" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1117" t="s">
         <v>127</v>
@@ -40889,10 +41009,10 @@
         <v>51</v>
       </c>
       <c r="C1118" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D1118" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E1118" s="1" t="s">
         <v>394</v>
@@ -40907,7 +41027,7 @@
         <v>0.1</v>
       </c>
       <c r="I1118" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1118" t="s">
         <v>127</v>
@@ -40924,7 +41044,7 @@
         <v>51</v>
       </c>
       <c r="C1119" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D1119" t="s">
         <v>161</v>
@@ -40942,7 +41062,7 @@
         <v>0.05</v>
       </c>
       <c r="I1119" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1119" t="s">
         <v>127</v>
@@ -40959,7 +41079,7 @@
         <v>51</v>
       </c>
       <c r="C1120" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D1120" t="s">
         <v>227</v>
@@ -40977,7 +41097,7 @@
         <v>0.1</v>
       </c>
       <c r="I1120" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1120" t="s">
         <v>60</v>
@@ -40994,7 +41114,7 @@
         <v>51</v>
       </c>
       <c r="C1121" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D1121" t="s">
         <v>139</v>
@@ -41012,7 +41132,7 @@
         <v>0.02</v>
       </c>
       <c r="I1121" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1121" t="s">
         <v>63</v>
@@ -41029,7 +41149,7 @@
         <v>51</v>
       </c>
       <c r="C1122" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D1122" t="s">
         <v>84</v>
@@ -41047,7 +41167,7 @@
         <v>0.1</v>
       </c>
       <c r="I1122" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1122" t="s">
         <v>127</v>
@@ -41064,7 +41184,7 @@
         <v>51</v>
       </c>
       <c r="C1123" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D1123" t="s">
         <v>244</v>
@@ -41082,7 +41202,7 @@
         <v>0.1</v>
       </c>
       <c r="I1123" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1123" t="s">
         <v>188</v>
@@ -41099,7 +41219,7 @@
         <v>51</v>
       </c>
       <c r="C1124" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D1124" t="s">
         <v>214</v>
@@ -41117,7 +41237,7 @@
         <v>0.05</v>
       </c>
       <c r="I1124" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1124" t="s">
         <v>188</v>
@@ -41134,10 +41254,10 @@
         <v>51</v>
       </c>
       <c r="C1125" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D1125" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E1125" s="1" t="s">
         <v>394</v>
@@ -41150,10 +41270,10 @@
         <v>0.1</v>
       </c>
       <c r="I1125" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1125" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K1125" t="s">
         <v>50</v>
@@ -41167,7 +41287,7 @@
         <v>51</v>
       </c>
       <c r="C1126" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D1126" t="s">
         <v>98</v>
@@ -41185,7 +41305,7 @@
         <v>168</v>
       </c>
       <c r="I1126" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1126" t="s">
         <v>63</v>
@@ -41202,10 +41322,10 @@
         <v>51</v>
       </c>
       <c r="C1127" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D1127" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1127" s="1" t="s">
         <v>394</v>
@@ -41220,7 +41340,7 @@
         <v>55</v>
       </c>
       <c r="I1127" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1127" t="s">
         <v>43</v>
@@ -41237,7 +41357,7 @@
         <v>51</v>
       </c>
       <c r="C1128" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D1128" t="s">
         <v>242</v>
@@ -41255,7 +41375,7 @@
         <v>0.02</v>
       </c>
       <c r="I1128" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1128" t="s">
         <v>63</v>
@@ -41272,7 +41392,7 @@
         <v>51</v>
       </c>
       <c r="C1129" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D1129" t="s">
         <v>244</v>
@@ -41290,7 +41410,7 @@
         <v>0.05</v>
       </c>
       <c r="I1129" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1129" t="s">
         <v>188</v>
@@ -41307,7 +41427,7 @@
         <v>51</v>
       </c>
       <c r="C1130" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D1130" t="s">
         <v>178</v>
@@ -41325,7 +41445,7 @@
         <v>99</v>
       </c>
       <c r="I1130" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1130" t="s">
         <v>63</v>
@@ -41342,7 +41462,7 @@
         <v>51</v>
       </c>
       <c r="C1131" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D1131" t="s">
         <v>76</v>
@@ -41360,7 +41480,7 @@
         <v>0.05</v>
       </c>
       <c r="I1131" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1131" t="s">
         <v>43</v>
@@ -41377,7 +41497,7 @@
         <v>51</v>
       </c>
       <c r="C1132" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D1132" t="s">
         <v>113</v>
@@ -41395,7 +41515,7 @@
         <v>0.1</v>
       </c>
       <c r="I1132" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1132" t="s">
         <v>63</v>
@@ -41412,10 +41532,10 @@
         <v>51</v>
       </c>
       <c r="C1133" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D1133" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E1133" s="1" t="s">
         <v>394</v>
@@ -41430,7 +41550,7 @@
         <v>0.05</v>
       </c>
       <c r="I1133" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1133" t="s">
         <v>68</v>
@@ -41447,10 +41567,10 @@
         <v>51</v>
       </c>
       <c r="C1134" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D1134" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E1134" s="1" t="s">
         <v>394</v>
@@ -41463,10 +41583,10 @@
         <v>0.2</v>
       </c>
       <c r="I1134" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1134" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K1134" t="s">
         <v>50</v>
@@ -41480,7 +41600,7 @@
         <v>51</v>
       </c>
       <c r="C1135" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D1135" t="s">
         <v>153</v>
@@ -41498,7 +41618,7 @@
         <v>0.1</v>
       </c>
       <c r="I1135" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1135" t="s">
         <v>127</v>
@@ -41515,7 +41635,7 @@
         <v>51</v>
       </c>
       <c r="C1136" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D1136" t="s">
         <v>78</v>
@@ -41533,7 +41653,7 @@
         <v>0.05</v>
       </c>
       <c r="I1136" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1136" t="s">
         <v>188</v>
@@ -41550,7 +41670,7 @@
         <v>51</v>
       </c>
       <c r="C1137" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D1137" t="s">
         <v>67</v>
@@ -41568,7 +41688,7 @@
         <v>99</v>
       </c>
       <c r="I1137" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1137" t="s">
         <v>63</v>
@@ -41585,7 +41705,7 @@
         <v>51</v>
       </c>
       <c r="C1138" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D1138" t="s">
         <v>253</v>
@@ -41603,7 +41723,7 @@
         <v>0.05</v>
       </c>
       <c r="I1138" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1138" t="s">
         <v>63</v>
@@ -41620,7 +41740,7 @@
         <v>51</v>
       </c>
       <c r="C1139" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D1139" t="s">
         <v>227</v>
@@ -41638,7 +41758,7 @@
         <v>0.01</v>
       </c>
       <c r="I1139" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1139" t="s">
         <v>63</v>
@@ -41655,7 +41775,7 @@
         <v>51</v>
       </c>
       <c r="C1140" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D1140" t="s">
         <v>148</v>
@@ -41673,7 +41793,7 @@
         <v>0.05</v>
       </c>
       <c r="I1140" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1140" t="s">
         <v>127</v>
@@ -41690,7 +41810,7 @@
         <v>51</v>
       </c>
       <c r="C1141" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D1141" t="s">
         <v>53</v>
@@ -41708,7 +41828,7 @@
         <v>55</v>
       </c>
       <c r="I1141" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1141" t="s">
         <v>63</v>
@@ -41725,7 +41845,7 @@
         <v>51</v>
       </c>
       <c r="C1142" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D1142" t="s">
         <v>113</v>
@@ -41743,7 +41863,7 @@
         <v>0.01</v>
       </c>
       <c r="I1142" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1142" t="s">
         <v>43</v>
@@ -41760,7 +41880,7 @@
         <v>51</v>
       </c>
       <c r="C1143" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D1143" t="s">
         <v>230</v>
@@ -41778,7 +41898,7 @@
         <v>0.05</v>
       </c>
       <c r="I1143" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1143" t="s">
         <v>63</v>
@@ -41795,7 +41915,7 @@
         <v>51</v>
       </c>
       <c r="C1144" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D1144" t="s">
         <v>148</v>
@@ -41813,7 +41933,7 @@
         <v>0.02</v>
       </c>
       <c r="I1144" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1144" t="s">
         <v>63</v>
@@ -41830,7 +41950,7 @@
         <v>51</v>
       </c>
       <c r="C1145" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D1145" t="s">
         <v>222</v>
@@ -41848,7 +41968,7 @@
         <v>0.05</v>
       </c>
       <c r="I1145" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1145" t="s">
         <v>63</v>
@@ -41865,7 +41985,7 @@
         <v>51</v>
       </c>
       <c r="C1146" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D1146" t="s">
         <v>185</v>
@@ -41883,7 +42003,7 @@
         <v>168</v>
       </c>
       <c r="I1146" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1146" t="s">
         <v>43</v>
@@ -41900,10 +42020,10 @@
         <v>51</v>
       </c>
       <c r="C1147" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D1147" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E1147" s="1" t="s">
         <v>394</v>
@@ -41918,7 +42038,7 @@
         <v>168</v>
       </c>
       <c r="I1147" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1147" t="s">
         <v>127</v>
@@ -41935,7 +42055,7 @@
         <v>51</v>
       </c>
       <c r="C1148" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D1148" t="s">
         <v>76</v>
@@ -41953,7 +42073,7 @@
         <v>0.01</v>
       </c>
       <c r="I1148" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1148" t="s">
         <v>63</v>
@@ -41970,10 +42090,10 @@
         <v>51</v>
       </c>
       <c r="C1149" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D1149" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E1149" s="1" t="s">
         <v>394</v>
@@ -41988,7 +42108,7 @@
         <v>0.05</v>
       </c>
       <c r="I1149" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1149" t="s">
         <v>68</v>
@@ -42005,7 +42125,7 @@
         <v>51</v>
       </c>
       <c r="C1150" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="D1150" t="s">
         <v>98</v>
@@ -42023,7 +42143,7 @@
         <v>55</v>
       </c>
       <c r="I1150" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1150" t="s">
         <v>43</v>
@@ -42040,10 +42160,10 @@
         <v>51</v>
       </c>
       <c r="C1151" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D1151" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E1151" s="1" t="s">
         <v>394</v>
@@ -42058,7 +42178,7 @@
         <v>0.02</v>
       </c>
       <c r="I1151" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1151" t="s">
         <v>63</v>
@@ -42075,10 +42195,10 @@
         <v>51</v>
       </c>
       <c r="C1152" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D1152" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E1152" s="1" t="s">
         <v>394</v>
@@ -42093,7 +42213,7 @@
         <v>0.05</v>
       </c>
       <c r="I1152" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1152" t="s">
         <v>63</v>
@@ -42110,7 +42230,7 @@
         <v>51</v>
       </c>
       <c r="C1153" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D1153" t="s">
         <v>214</v>
@@ -42128,7 +42248,7 @@
         <v>0.01</v>
       </c>
       <c r="I1153" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1153" t="s">
         <v>63</v>
@@ -42145,7 +42265,7 @@
         <v>51</v>
       </c>
       <c r="C1154" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D1154" t="s">
         <v>153</v>
@@ -42163,7 +42283,7 @@
         <v>0.01</v>
       </c>
       <c r="I1154" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1154" t="s">
         <v>43</v>
@@ -42180,7 +42300,7 @@
         <v>51</v>
       </c>
       <c r="C1155" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D1155" t="s">
         <v>40</v>
@@ -42196,7 +42316,7 @@
         <v>0.1</v>
       </c>
       <c r="I1155" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1155" t="s">
         <v>43</v>
@@ -42213,7 +42333,7 @@
         <v>51</v>
       </c>
       <c r="C1156" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D1156" t="s">
         <v>29</v>
@@ -42229,10 +42349,10 @@
         <v>0.1</v>
       </c>
       <c r="I1156" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1156" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K1156" t="s">
         <v>50</v>
@@ -42246,7 +42366,7 @@
         <v>51</v>
       </c>
       <c r="C1157" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D1157" t="s">
         <v>92</v>
@@ -42264,7 +42384,7 @@
         <v>0.01</v>
       </c>
       <c r="I1157" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1157" t="s">
         <v>63</v>
@@ -42281,10 +42401,10 @@
         <v>51</v>
       </c>
       <c r="C1158" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D1158" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E1158" s="1" t="s">
         <v>394</v>
@@ -42299,7 +42419,7 @@
         <v>0.05</v>
       </c>
       <c r="I1158" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J1158" t="s">
         <v>63</v>
@@ -42313,31 +42433,31 @@
         <v>11</v>
       </c>
       <c r="B1159" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C1159" s="1" t="s">
         <v>1599</v>
-      </c>
-      <c r="C1159" s="1" t="s">
-        <v>1600</v>
       </c>
       <c r="D1159" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E1159" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F1159" s="1" t="s">
         <v>1601</v>
       </c>
-      <c r="F1159" s="1" t="s">
-        <v>1602</v>
-      </c>
       <c r="G1159" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H1159" s="1" t="s">
         <v>1079</v>
       </c>
       <c r="I1159" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="L1159" s="1" t="s">
         <v>1603</v>
-      </c>
-      <c r="L1159" s="1" t="s">
-        <v>1604</v>
       </c>
     </row>
     <row r="1160" spans="1:12" x14ac:dyDescent="0.25">
@@ -42348,7 +42468,7 @@
         <v>51</v>
       </c>
       <c r="C1160" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="D1160" s="1" t="s">
         <v>130</v>
@@ -42360,13 +42480,13 @@
         <v>41</v>
       </c>
       <c r="G1160" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1160" s="1" t="s">
         <v>1080</v>
       </c>
       <c r="I1160" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="J1160" s="1" t="s">
         <v>63</v>
@@ -42377,28 +42497,28 @@
     </row>
     <row r="1161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1161" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1161" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="B1161" s="1" t="s">
-        <v>1609</v>
-      </c>
       <c r="C1161" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D1161" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E1161" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="F1161" s="1" t="s">
         <v>266</v>
       </c>
       <c r="G1161" s="1" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="I1161" s="2" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="J1161" s="1" t="s">
         <v>273</v>
@@ -42406,57 +42526,57 @@
     </row>
     <row r="1162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1162" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1162" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="B1162" s="1" t="s">
+      <c r="C1162" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D1162" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E1162" s="1" t="s">
         <v>1609</v>
-      </c>
-      <c r="C1162" s="1" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D1162" s="1" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E1162" s="1" t="s">
-        <v>1610</v>
       </c>
       <c r="F1162" s="1" t="s">
         <v>266</v>
       </c>
       <c r="G1162" s="1" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="I1162" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="J1162" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1163" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1163" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="B1163" s="1" t="s">
-        <v>1609</v>
-      </c>
       <c r="C1163" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D1163" s="1" t="s">
         <v>300</v>
       </c>
       <c r="E1163" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="F1163" s="1" t="s">
         <v>266</v>
       </c>
       <c r="G1163" s="1" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="I1163" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="J1163" s="1" t="s">
         <v>300</v>
@@ -42464,28 +42584,28 @@
     </row>
     <row r="1164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1164" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1164" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="B1164" s="1" t="s">
-        <v>1609</v>
-      </c>
       <c r="C1164" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D1164" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E1164" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="F1164" s="1" t="s">
         <v>266</v>
       </c>
       <c r="G1164" s="1" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="I1164" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="J1164" s="1" t="s">
         <v>313</v>
@@ -42493,28 +42613,28 @@
     </row>
     <row r="1165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1165" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1165" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="B1165" s="1" t="s">
-        <v>1609</v>
-      </c>
       <c r="C1165" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D1165" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E1165" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F1165" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="F1165" s="1" t="s">
-        <v>1622</v>
-      </c>
       <c r="G1165" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I1165" s="1" t="s">
         <v>1624</v>
-      </c>
-      <c r="I1165" s="1" t="s">
-        <v>1625</v>
       </c>
       <c r="J1165" s="1" t="s">
         <v>273</v>
@@ -42522,57 +42642,57 @@
     </row>
     <row r="1166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1166" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1166" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="B1166" s="1" t="s">
-        <v>1609</v>
-      </c>
       <c r="C1166" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D1166" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E1166" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F1166" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="G1166" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I1166" s="1" t="s">
         <v>1626</v>
       </c>
-      <c r="D1166" s="1" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E1166" s="1" t="s">
-        <v>1621</v>
-      </c>
-      <c r="F1166" s="1" t="s">
-        <v>1622</v>
-      </c>
-      <c r="G1166" s="1" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I1166" s="1" t="s">
-        <v>1627</v>
-      </c>
       <c r="J1166" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1167" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1167" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="B1167" s="1" t="s">
-        <v>1609</v>
-      </c>
       <c r="C1167" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D1167" s="1" t="s">
         <v>300</v>
       </c>
       <c r="E1167" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F1167" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="F1167" s="1" t="s">
-        <v>1622</v>
-      </c>
       <c r="G1167" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="I1167" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="J1167" s="1" t="s">
         <v>300</v>
@@ -42580,31 +42700,252 @@
     </row>
     <row r="1168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1168" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1168" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="B1168" s="1" t="s">
-        <v>1609</v>
-      </c>
       <c r="C1168" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D1168" s="1" t="s">
         <v>304</v>
       </c>
       <c r="E1168" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F1168" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="F1168" s="1" t="s">
-        <v>1622</v>
-      </c>
       <c r="G1168" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="I1168" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="J1168" s="1" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1169" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1169" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1169" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D1169" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1169" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F1169" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1169" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H1169" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I1169" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J1169" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1169" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1170" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1170" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1170" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D1170" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E1170" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F1170" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="G1170" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="H1170" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="I1170" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L1170" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1171" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B1171" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C1171" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E1171" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F1171" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="G1171" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I1171" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="L1171" s="1" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1172" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1172" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1172" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D1172" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E1172" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="F1172" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G1172" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H1172" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I1172" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="L1172" s="1" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1173" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1173" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D1173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1173" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F1173" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="G1173" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="H1173" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I1173" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L1173" s="1" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1174" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1174" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C1174" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D1174" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E1174" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F1174" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1174" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H1174" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I1174" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="J1174" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1174" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1175" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1175" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C1175" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1175" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E1175" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F1175" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G1175" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H1175" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I1175" s="1" t="s">
+        <v>1671</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/autogenerated_parts.xlsx
+++ b/scripts/autogenerated_parts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\kicad_wut\kicad_libraries\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9198176-9203-4F22-B02F-AF8D31EA1B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FECE6F-E068-4D2B-96FD-5924E88DC64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10747" uniqueCount="1672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10802" uniqueCount="1691">
   <si>
     <t>Base Symbol</t>
   </si>
@@ -5050,6 +5050,63 @@
   </si>
   <si>
     <t>http://industrial.panasonic.com/cdbs/www-data/pdf/RDN0000/AOA0000C325.pdf</t>
+  </si>
+  <si>
+    <t>RK73H1ETTP49R9F</t>
+  </si>
+  <si>
+    <t>49R9</t>
+  </si>
+  <si>
+    <t>RK73H1ETTP4750F</t>
+  </si>
+  <si>
+    <t>475R</t>
+  </si>
+  <si>
+    <t>Littelfuse</t>
+  </si>
+  <si>
+    <t>AQ3522-01LTG</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/media?resourcetype=datasheets&amp;itemid=13e8cf99-f83e-4420-b01d-a95f292826b3&amp;filename=littelfuse-tvs-diode-array-aq3522-01ltg-datasheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK73H1ETTP1400F </t>
+  </si>
+  <si>
+    <t>140R</t>
+  </si>
+  <si>
+    <t>0603AF-102XJR</t>
+  </si>
+  <si>
+    <t>1u0</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>https://www.coilcraft.com/getmedia/d1383945-8e89-4315-a3c0-59c445701e7e/0603af.pdf</t>
+  </si>
+  <si>
+    <t>400mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERJ3RSFR15V </t>
+  </si>
+  <si>
+    <t>http://industrial.panasonic.com/cdbs/www-data/pdf/RDN0000/AOA0000C313.pdf</t>
+  </si>
+  <si>
+    <t>150m</t>
+  </si>
+  <si>
+    <t>0.45</t>
   </si>
 </sst>
 </file>
@@ -5389,11 +5446,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1175"/>
+  <dimension ref="A1:L1181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1175" sqref="J1175"/>
+      <pane ySplit="1" topLeftCell="A1153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1181" sqref="I1181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42946,6 +43003,183 @@
       </c>
       <c r="I1175" s="1" t="s">
         <v>1671</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1176" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1176" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1176" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D1176" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1176" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1176" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G1176" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H1176" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I1176" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1177" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1177" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1177" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D1177" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E1177" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1177" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G1177" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H1177" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I1177" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1178" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1178" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C1178" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D1178" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E1178" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F1178" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="G1178" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I1178" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="J1178" s="1" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1179" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1179" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1179" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D1179" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E1179" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1179" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G1179" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H1179" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I1179" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1180" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1180" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1180" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D1180" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E1180" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1180" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G1180" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H1180" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I1180" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="L1180" s="1" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1181" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1181" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C1181" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D1181" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E1181" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1181" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="G1181" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H1181" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I1181" s="1" t="s">
+        <v>1688</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/autogenerated_parts.xlsx
+++ b/scripts/autogenerated_parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\kicad_wut\kicad_libraries\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EFE14A-3FB3-460C-AA4A-C4000FDEA970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2A2E14-7AEA-4DE6-BCE3-CA4043C6D0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11983" uniqueCount="1693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11994" uniqueCount="1696">
   <si>
     <t>Base Symbol</t>
   </si>
@@ -5113,6 +5113,15 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>0402DC-47NXJRW</t>
+  </si>
+  <si>
+    <t>https://www.coilcraft.com/getmedia/b3553702-9a56-4386-b513-fcddf8709240/0402dc.pdf</t>
+  </si>
+  <si>
+    <t>330mA</t>
   </si>
 </sst>
 </file>
@@ -5452,11 +5461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1181"/>
+  <dimension ref="A1:M1182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1180" sqref="E1180"/>
+      <pane ySplit="1" topLeftCell="A1169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1183" sqref="M1183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46729,6 +46738,41 @@
       </c>
       <c r="J1181" s="1" t="s">
         <v>1687</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1182" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1182" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1182" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D1182" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E1182" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F1182" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G1182" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H1182" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I1182" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J1182" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="M1182" s="1" t="s">
+        <v>1695</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/autogenerated_parts.xlsx
+++ b/scripts/autogenerated_parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\kicad_wut\kicad_libraries\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2A2E14-7AEA-4DE6-BCE3-CA4043C6D0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05A8837-31E8-4B08-AFFE-7E44E5312A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11994" uniqueCount="1696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12005" uniqueCount="1699">
   <si>
     <t>Base Symbol</t>
   </si>
@@ -5122,6 +5122,15 @@
   </si>
   <si>
     <t>330mA</t>
+  </si>
+  <si>
+    <t>0402DC-5N1XJRW</t>
+  </si>
+  <si>
+    <t>960mA</t>
+  </si>
+  <si>
+    <t>5n1</t>
   </si>
 </sst>
 </file>
@@ -5461,11 +5470,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1182"/>
+  <dimension ref="A1:M1183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1183" sqref="M1183"/>
+      <selection pane="bottomLeft" activeCell="G1195" sqref="G1195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46773,6 +46782,41 @@
       </c>
       <c r="M1182" s="1" t="s">
         <v>1695</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1183" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1183" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1183" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D1183" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E1183" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F1183" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G1183" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H1183" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I1183" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J1183" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="M1183" s="1" t="s">
+        <v>1697</v>
       </c>
     </row>
   </sheetData>
